--- a/Results/Egg_5Gr_5CVDs_HR_table_MI1.xlsx
+++ b/Results/Egg_5Gr_5CVDs_HR_table_MI1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Keiji\Documents\Research\egg_cvd\Results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66372560-E160-49DB-8462-AFAC1CDB02BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA4D948F-FAA8-46EA-9935-DDCEF5C2DA00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="685" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="734" uniqueCount="175">
   <si>
     <t xml:space="preserve">
 </t>
@@ -334,9 +334,6 @@
     <t>0.89, 0.97</t>
   </si>
   <si>
-    <t>1.08, 1.18</t>
-  </si>
-  <si>
     <t>1.48, 1.63</t>
   </si>
   <si>
@@ -410,9 +407,6 @@
     <t>1.09, 1.19</t>
   </si>
   <si>
-    <t>1.52, 1.68</t>
-  </si>
-  <si>
     <t>0.94, 1.05</t>
   </si>
   <si>
@@ -437,48 +431,24 @@
     <t>1.11, 1.32</t>
   </si>
   <si>
-    <t>1.18, 1.44</t>
-  </si>
-  <si>
-    <t>1.26, 1.75</t>
-  </si>
-  <si>
-    <t>1.49, 1.93</t>
-  </si>
-  <si>
     <t>0.92, 1.10</t>
   </si>
   <si>
-    <t>0.84, 1.08</t>
-  </si>
-  <si>
-    <t>0.82, 0.99</t>
-  </si>
-  <si>
     <t>1.00, 1.05</t>
   </si>
   <si>
     <t>0.99, 1.29</t>
   </si>
   <si>
-    <t>1.88, 2.14</t>
-  </si>
-  <si>
     <t>1.34, 1.65</t>
   </si>
   <si>
-    <t>1.16, 1.35</t>
-  </si>
-  <si>
     <t>1.16, 1.48</t>
   </si>
   <si>
     <t>1.18, 1.40</t>
   </si>
   <si>
-    <t>1.02, 1.58</t>
-  </si>
-  <si>
     <t>1.13, 1.37</t>
   </si>
   <si>
@@ -536,15 +506,6 @@
     <t>100 g/d</t>
   </si>
   <si>
-    <t>101 g/d</t>
-  </si>
-  <si>
-    <t>102 g/d</t>
-  </si>
-  <si>
-    <t>103 g/d</t>
-  </si>
-  <si>
     <t>Meat intake (gram/day)</t>
   </si>
   <si>
@@ -569,7 +530,68 @@
     <t>1.00 (Ref)</t>
   </si>
   <si>
-    <t>Hazard ratio for egg intake at various meat intake</t>
+    <t>1.08, 1.17</t>
+  </si>
+  <si>
+    <t>1.52, 1.67</t>
+  </si>
+  <si>
+    <t>1.26, 1.74</t>
+  </si>
+  <si>
+    <t>1.47, 1.90</t>
+  </si>
+  <si>
+    <t>1.00, 1.01</t>
+  </si>
+  <si>
+    <t>0.83, 1.08</t>
+  </si>
+  <si>
+    <t>0.97, 1.0</t>
+  </si>
+  <si>
+    <t>0.83, 0.99</t>
+  </si>
+  <si>
+    <t>1.89, 2.15</t>
+  </si>
+  <si>
+    <t>1.15, 1.35</t>
+  </si>
+  <si>
+    <t>1.01, 1.57</t>
+  </si>
+  <si>
+    <t>Hazard ratio for the combinations of egg and meat intake, with reference to those do not eat eggs or meat</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Hazard ratio for egg intake at various meat intake (At </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>each</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> meat intake level, the reference is those who do not eat any eggs)</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -579,7 +601,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -623,6 +645,22 @@
     </font>
     <font>
       <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -729,7 +767,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -741,12 +779,6 @@
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -805,8 +837,17 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1112,2567 +1153,2567 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J84"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="30" style="11" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.6640625" style="16" customWidth="1"/>
+    <col min="1" max="1" width="30" style="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.6640625" style="14" customWidth="1"/>
     <col min="3" max="3" width="10.6640625" customWidth="1"/>
-    <col min="4" max="4" width="10.6640625" style="21" customWidth="1"/>
-    <col min="5" max="5" width="10.6640625" style="16" customWidth="1"/>
+    <col min="4" max="4" width="10.6640625" style="19" customWidth="1"/>
+    <col min="5" max="5" width="10.6640625" style="14" customWidth="1"/>
     <col min="6" max="6" width="10.6640625" customWidth="1"/>
-    <col min="7" max="7" width="10.6640625" style="21" customWidth="1"/>
-    <col min="8" max="8" width="10.6640625" style="16" customWidth="1"/>
+    <col min="7" max="7" width="10.6640625" style="19" customWidth="1"/>
+    <col min="8" max="8" width="10.6640625" style="14" customWidth="1"/>
     <col min="9" max="9" width="10.6640625" customWidth="1"/>
-    <col min="10" max="10" width="10.6640625" style="21" customWidth="1"/>
+    <col min="10" max="10" width="10.6640625" style="19" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A1" s="22" t="s">
-        <v>149</v>
+      <c r="A1" s="20" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2" s="22" t="s">
-        <v>147</v>
+      <c r="A2" s="20" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3" s="22" t="s">
-        <v>148</v>
+      <c r="A3" s="20" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A4" s="22" t="s">
-        <v>150</v>
+      <c r="A4" s="20" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="7" t="s">
+      <c r="A6" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="30" t="s">
         <v>62</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C6" s="30" t="s">
         <v>62</v>
       </c>
-      <c r="D6" s="6" t="s">
+      <c r="D6" s="30" t="s">
         <v>62</v>
       </c>
-      <c r="E6" s="6" t="s">
+      <c r="E6" s="30" t="s">
         <v>92</v>
       </c>
-      <c r="F6" s="6" t="s">
+      <c r="F6" s="30" t="s">
         <v>92</v>
       </c>
-      <c r="G6" s="6" t="s">
+      <c r="G6" s="30" t="s">
         <v>92</v>
       </c>
-      <c r="H6" s="6" t="s">
-        <v>114</v>
-      </c>
-      <c r="I6" s="6" t="s">
-        <v>114</v>
-      </c>
-      <c r="J6" s="6" t="s">
-        <v>114</v>
+      <c r="H6" s="30" t="s">
+        <v>113</v>
+      </c>
+      <c r="I6" s="30" t="s">
+        <v>113</v>
+      </c>
+      <c r="J6" s="30" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="8" t="s">
+      <c r="A7" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B7" s="12" t="s">
+      <c r="B7" s="10" t="s">
         <v>63</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="D7" s="17" t="s">
+      <c r="D7" s="15" t="s">
         <v>90</v>
       </c>
-      <c r="E7" s="12" t="s">
+      <c r="E7" s="10" t="s">
         <v>63</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="G7" s="17" t="s">
+      <c r="G7" s="15" t="s">
         <v>90</v>
       </c>
-      <c r="H7" s="12" t="s">
+      <c r="H7" s="10" t="s">
         <v>63</v>
       </c>
       <c r="I7" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="J7" s="17" t="s">
+      <c r="J7" s="15" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="9" t="s">
+      <c r="A8" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B8" s="13" t="s">
+      <c r="B8" s="11" t="s">
         <v>64</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="D8" s="18" t="s">
+      <c r="D8" s="16" t="s">
         <v>91</v>
       </c>
-      <c r="E8" s="13" t="s">
+      <c r="E8" s="11" t="s">
         <v>64</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="G8" s="18" t="s">
+      <c r="G8" s="16" t="s">
         <v>91</v>
       </c>
-      <c r="H8" s="13" t="s">
+      <c r="H8" s="11" t="s">
         <v>64</v>
       </c>
       <c r="I8" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="J8" s="18" t="s">
+      <c r="J8" s="16" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="7" t="s">
+      <c r="A9" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B9" s="14">
+      <c r="B9" s="12">
         <v>1</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="D9" s="19" t="s">
-        <v>64</v>
-      </c>
-      <c r="E9" s="14">
+      <c r="D9" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="E9" s="12">
         <v>1</v>
       </c>
       <c r="F9" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="G9" s="19" t="s">
-        <v>64</v>
-      </c>
-      <c r="H9" s="14">
+      <c r="G9" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="H9" s="12">
         <v>1</v>
       </c>
       <c r="I9" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="J9" s="19" t="s">
+      <c r="J9" s="17" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="7" t="s">
+      <c r="A10" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B10" s="14">
+      <c r="B10" s="12">
         <v>1.28</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="D10" s="19" t="s">
-        <v>64</v>
-      </c>
-      <c r="E10" s="14">
+      <c r="D10" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="E10" s="12">
         <v>1.28</v>
       </c>
       <c r="F10" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="G10" s="19" t="s">
-        <v>64</v>
-      </c>
-      <c r="H10" s="14">
+      <c r="G10" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="H10" s="12">
         <v>1.28</v>
       </c>
       <c r="I10" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="J10" s="19" t="s">
+      <c r="J10" s="17" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="7" t="s">
+      <c r="A11" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B11" s="14" t="s">
+      <c r="B11" s="12" t="s">
         <v>64</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="D11" s="19" t="s">
+      <c r="D11" s="17" t="s">
         <v>91</v>
       </c>
-      <c r="E11" s="14" t="s">
+      <c r="E11" s="12" t="s">
         <v>64</v>
       </c>
       <c r="F11" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="G11" s="19" t="s">
+      <c r="G11" s="17" t="s">
         <v>91</v>
       </c>
-      <c r="H11" s="14" t="s">
+      <c r="H11" s="12" t="s">
         <v>64</v>
       </c>
       <c r="I11" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="J11" s="19" t="s">
+      <c r="J11" s="17" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="7" t="s">
+      <c r="A12" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B12" s="14">
+      <c r="B12" s="12">
         <v>1</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="D12" s="19" t="s">
-        <v>64</v>
-      </c>
-      <c r="E12" s="14">
+      <c r="D12" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="E12" s="12">
         <v>1</v>
       </c>
       <c r="F12" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="G12" s="19" t="s">
-        <v>64</v>
-      </c>
-      <c r="H12" s="14">
+      <c r="G12" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="H12" s="12">
         <v>1</v>
       </c>
       <c r="I12" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="J12" s="19" t="s">
+      <c r="J12" s="17" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="7" t="s">
+      <c r="A13" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B13" s="14">
+      <c r="B13" s="12">
         <v>0.74</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="D13" s="19" t="s">
-        <v>64</v>
-      </c>
-      <c r="E13" s="14">
+      <c r="D13" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="E13" s="12">
         <v>0.73</v>
       </c>
       <c r="F13" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="G13" s="19" t="s">
-        <v>64</v>
-      </c>
-      <c r="H13" s="14">
+      <c r="G13" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="H13" s="12">
         <v>0.76</v>
       </c>
       <c r="I13" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="J13" s="19" t="s">
+        <v>114</v>
+      </c>
+      <c r="J13" s="17" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="7" t="s">
+      <c r="A14" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B14" s="14">
+      <c r="B14" s="12">
         <v>0.71</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="D14" s="19" t="s">
-        <v>64</v>
-      </c>
-      <c r="E14" s="14">
-        <v>0.71</v>
+      <c r="D14" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="E14" s="12">
+        <v>0.7</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="G14" s="19" t="s">
-        <v>64</v>
-      </c>
-      <c r="H14" s="14">
+      <c r="G14" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="H14" s="12">
         <v>0.75</v>
       </c>
       <c r="I14" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="J14" s="19" t="s">
+        <v>115</v>
+      </c>
+      <c r="J14" s="17" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="7" t="s">
+      <c r="A15" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B15" s="14" t="s">
+      <c r="B15" s="12" t="s">
         <v>64</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="D15" s="19" t="s">
+      <c r="D15" s="17" t="s">
         <v>91</v>
       </c>
-      <c r="E15" s="14" t="s">
+      <c r="E15" s="12" t="s">
         <v>64</v>
       </c>
       <c r="F15" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="G15" s="19" t="s">
+      <c r="G15" s="17" t="s">
         <v>91</v>
       </c>
-      <c r="H15" s="14" t="s">
+      <c r="H15" s="12" t="s">
         <v>64</v>
       </c>
       <c r="I15" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="J15" s="19">
+      <c r="J15" s="17">
         <v>1.4999999999999999E-2</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="7" t="s">
+      <c r="A16" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B16" s="14">
+      <c r="B16" s="12">
         <v>1</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="D16" s="19" t="s">
-        <v>64</v>
-      </c>
-      <c r="E16" s="14">
+      <c r="D16" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="E16" s="12">
         <v>1</v>
       </c>
       <c r="F16" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="G16" s="19" t="s">
-        <v>64</v>
-      </c>
-      <c r="H16" s="14">
+      <c r="G16" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="H16" s="12">
         <v>1</v>
       </c>
       <c r="I16" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="J16" s="19" t="s">
+      <c r="J16" s="17" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="7" t="s">
+      <c r="A17" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B17" s="14">
+      <c r="B17" s="12">
         <v>1.23</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="D17" s="19" t="s">
-        <v>64</v>
-      </c>
-      <c r="E17" s="14">
+      <c r="D17" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="E17" s="12">
         <v>1.23</v>
       </c>
       <c r="F17" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="G17" s="19" t="s">
-        <v>64</v>
-      </c>
-      <c r="H17" s="14">
-        <v>1.1599999999999999</v>
+      <c r="G17" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="H17" s="12">
+        <v>1.1499999999999999</v>
       </c>
       <c r="I17" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="J17" s="19" t="s">
+        <v>116</v>
+      </c>
+      <c r="J17" s="17" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="7" t="s">
+      <c r="A18" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B18" s="14">
+      <c r="B18" s="12">
         <v>1.04</v>
       </c>
       <c r="C18" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="D18" s="19" t="s">
-        <v>64</v>
-      </c>
-      <c r="E18" s="14">
+      <c r="D18" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="E18" s="12">
         <v>1.04</v>
       </c>
       <c r="F18" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="G18" s="19" t="s">
-        <v>64</v>
-      </c>
-      <c r="H18" s="14">
+      <c r="G18" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="H18" s="12">
         <v>0.99</v>
       </c>
       <c r="I18" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="J18" s="19" t="s">
+        <v>117</v>
+      </c>
+      <c r="J18" s="17" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="19" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="7" t="s">
+      <c r="A19" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B19" s="14" t="s">
+      <c r="B19" s="12" t="s">
         <v>64</v>
       </c>
       <c r="C19" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="D19" s="19">
+      <c r="D19" s="17">
         <v>1E-3</v>
       </c>
-      <c r="E19" s="14" t="s">
+      <c r="E19" s="12" t="s">
         <v>64</v>
       </c>
       <c r="F19" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="G19" s="19" t="s">
+      <c r="G19" s="17" t="s">
         <v>91</v>
       </c>
-      <c r="H19" s="14" t="s">
+      <c r="H19" s="12" t="s">
         <v>64</v>
       </c>
       <c r="I19" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="J19" s="19" t="s">
+      <c r="J19" s="17" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="20" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="7" t="s">
+      <c r="A20" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B20" s="14">
+      <c r="B20" s="12">
         <v>1</v>
       </c>
       <c r="C20" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="D20" s="19" t="s">
-        <v>64</v>
-      </c>
-      <c r="E20" s="14">
+      <c r="D20" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="E20" s="12">
         <v>1</v>
       </c>
       <c r="F20" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="G20" s="19" t="s">
-        <v>64</v>
-      </c>
-      <c r="H20" s="14">
+      <c r="G20" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="H20" s="12">
         <v>1</v>
       </c>
       <c r="I20" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="J20" s="19" t="s">
+      <c r="J20" s="17" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="21" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="7" t="s">
+      <c r="A21" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B21" s="14">
+      <c r="B21" s="12">
         <v>0.92</v>
       </c>
       <c r="C21" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="D21" s="19" t="s">
-        <v>64</v>
-      </c>
-      <c r="E21" s="14">
+      <c r="D21" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="E21" s="12">
         <v>0.91</v>
       </c>
       <c r="F21" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="G21" s="19" t="s">
-        <v>64</v>
-      </c>
-      <c r="H21" s="14">
+      <c r="G21" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="H21" s="12">
         <v>0.88</v>
       </c>
       <c r="I21" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="J21" s="19" t="s">
+        <v>118</v>
+      </c>
+      <c r="J21" s="17" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="22" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="7" t="s">
+      <c r="A22" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B22" s="14">
+      <c r="B22" s="12">
         <v>0.94</v>
       </c>
       <c r="C22" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="D22" s="19" t="s">
-        <v>64</v>
-      </c>
-      <c r="E22" s="14">
+      <c r="D22" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="E22" s="12">
         <v>0.93</v>
       </c>
       <c r="F22" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="G22" s="19" t="s">
-        <v>64</v>
-      </c>
-      <c r="H22" s="14">
+      <c r="G22" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="H22" s="12">
         <v>0.93</v>
       </c>
       <c r="I22" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="J22" s="19" t="s">
+        <v>119</v>
+      </c>
+      <c r="J22" s="17" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="23" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="7" t="s">
+      <c r="A23" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B23" s="14" t="s">
+      <c r="B23" s="12" t="s">
         <v>64</v>
       </c>
       <c r="C23" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="D23" s="19" t="s">
+      <c r="D23" s="17" t="s">
         <v>91</v>
       </c>
-      <c r="E23" s="14" t="s">
+      <c r="E23" s="12" t="s">
         <v>64</v>
       </c>
       <c r="F23" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="G23" s="19" t="s">
+      <c r="G23" s="17" t="s">
         <v>91</v>
       </c>
-      <c r="H23" s="14" t="s">
+      <c r="H23" s="12" t="s">
         <v>64</v>
       </c>
       <c r="I23" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="J23" s="19" t="s">
+      <c r="J23" s="17" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="24" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="7" t="s">
+      <c r="A24" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B24" s="14">
+      <c r="B24" s="12">
         <v>1</v>
       </c>
       <c r="C24" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="D24" s="19" t="s">
-        <v>64</v>
-      </c>
-      <c r="E24" s="14">
+      <c r="D24" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="E24" s="12">
         <v>1</v>
       </c>
       <c r="F24" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="G24" s="19" t="s">
-        <v>64</v>
-      </c>
-      <c r="H24" s="14">
+      <c r="G24" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="H24" s="12">
         <v>1</v>
       </c>
       <c r="I24" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="J24" s="19" t="s">
+      <c r="J24" s="17" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="25" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="7" t="s">
+      <c r="A25" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="B25" s="14">
+      <c r="B25" s="12">
         <v>1.1399999999999999</v>
       </c>
       <c r="C25" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="D25" s="19" t="s">
-        <v>64</v>
-      </c>
-      <c r="E25" s="14">
+      <c r="D25" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="E25" s="12">
         <v>1.1299999999999999</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="G25" s="19" t="s">
-        <v>64</v>
-      </c>
-      <c r="H25" s="14">
+        <v>162</v>
+      </c>
+      <c r="G25" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="H25" s="12">
         <v>1.1399999999999999</v>
       </c>
       <c r="I25" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="J25" s="19" t="s">
+        <v>120</v>
+      </c>
+      <c r="J25" s="17" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="26" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="7" t="s">
+      <c r="A26" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="B26" s="14">
+      <c r="B26" s="12">
         <v>1.59</v>
       </c>
       <c r="C26" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="D26" s="19" t="s">
-        <v>64</v>
-      </c>
-      <c r="E26" s="14">
-        <v>1.56</v>
+      <c r="D26" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="E26" s="12">
+        <v>1.55</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="G26" s="19" t="s">
-        <v>64</v>
-      </c>
-      <c r="H26" s="14">
-        <v>1.6</v>
+        <v>97</v>
+      </c>
+      <c r="G26" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="H26" s="12">
+        <v>1.59</v>
       </c>
       <c r="I26" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="J26" s="19" t="s">
+        <v>163</v>
+      </c>
+      <c r="J26" s="17" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="27" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="7" t="s">
+      <c r="A27" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="B27" s="14" t="s">
+      <c r="B27" s="12" t="s">
         <v>64</v>
       </c>
       <c r="C27" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="D27" s="19" t="s">
+      <c r="D27" s="17" t="s">
         <v>91</v>
       </c>
-      <c r="E27" s="14" t="s">
+      <c r="E27" s="12" t="s">
         <v>64</v>
       </c>
       <c r="F27" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="G27" s="19" t="s">
+      <c r="G27" s="17" t="s">
         <v>91</v>
       </c>
-      <c r="H27" s="14" t="s">
+      <c r="H27" s="12" t="s">
         <v>64</v>
       </c>
       <c r="I27" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="J27" s="19">
-        <v>0.26600000000000001</v>
+      <c r="J27" s="17">
+        <v>0.249</v>
       </c>
     </row>
     <row r="28" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="7" t="s">
+      <c r="A28" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="B28" s="14">
+      <c r="B28" s="12">
         <v>1</v>
       </c>
       <c r="C28" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="D28" s="19" t="s">
-        <v>64</v>
-      </c>
-      <c r="E28" s="14">
+      <c r="D28" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="E28" s="12">
         <v>1</v>
       </c>
       <c r="F28" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="G28" s="19" t="s">
-        <v>64</v>
-      </c>
-      <c r="H28" s="14">
+      <c r="G28" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="H28" s="12">
         <v>1</v>
       </c>
       <c r="I28" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="J28" s="19" t="s">
+      <c r="J28" s="17" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="29" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="7" t="s">
+      <c r="A29" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="B29" s="14">
+      <c r="B29" s="12">
         <v>0.94</v>
       </c>
       <c r="C29" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="D29" s="19" t="s">
-        <v>64</v>
-      </c>
-      <c r="E29" s="14">
+      <c r="D29" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="E29" s="12">
         <v>0.94</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="G29" s="19" t="s">
-        <v>64</v>
-      </c>
-      <c r="H29" s="14">
+        <v>98</v>
+      </c>
+      <c r="G29" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="H29" s="12">
         <v>0.99</v>
       </c>
       <c r="I29" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="J29" s="19" t="s">
+        <v>121</v>
+      </c>
+      <c r="J29" s="17" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="30" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="7" t="s">
+      <c r="A30" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="B30" s="14">
+      <c r="B30" s="12">
         <v>0.92</v>
       </c>
       <c r="C30" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="D30" s="19" t="s">
-        <v>64</v>
-      </c>
-      <c r="E30" s="14">
+      <c r="D30" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="E30" s="12">
         <v>0.92</v>
       </c>
       <c r="F30" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="G30" s="19" t="s">
-        <v>64</v>
-      </c>
-      <c r="H30" s="14">
+      <c r="G30" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="H30" s="12">
         <v>0.98</v>
       </c>
       <c r="I30" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="J30" s="19" t="s">
+        <v>122</v>
+      </c>
+      <c r="J30" s="17" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="31" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="7" t="s">
+      <c r="A31" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="B31" s="14">
+      <c r="B31" s="12">
         <v>0.9</v>
       </c>
       <c r="C31" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="D31" s="19" t="s">
-        <v>64</v>
-      </c>
-      <c r="E31" s="14">
+      <c r="D31" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="E31" s="12">
         <v>0.9</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="G31" s="19" t="s">
-        <v>64</v>
-      </c>
-      <c r="H31" s="14">
+        <v>99</v>
+      </c>
+      <c r="G31" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="H31" s="12">
         <v>0.95</v>
       </c>
       <c r="I31" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="J31" s="19" t="s">
+        <v>123</v>
+      </c>
+      <c r="J31" s="17" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="32" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="7" t="s">
+      <c r="A32" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="B32" s="14" t="s">
+      <c r="B32" s="12" t="s">
         <v>64</v>
       </c>
       <c r="C32" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="D32" s="19" t="s">
+      <c r="D32" s="17" t="s">
         <v>91</v>
       </c>
-      <c r="E32" s="14" t="s">
+      <c r="E32" s="12" t="s">
         <v>64</v>
       </c>
       <c r="F32" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="G32" s="19" t="s">
+      <c r="G32" s="17" t="s">
         <v>91</v>
       </c>
-      <c r="H32" s="14" t="s">
+      <c r="H32" s="12" t="s">
         <v>64</v>
       </c>
       <c r="I32" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="J32" s="19" t="s">
+      <c r="J32" s="17" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="33" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="7" t="s">
+      <c r="A33" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="B33" s="14">
+      <c r="B33" s="12">
         <v>1</v>
       </c>
       <c r="C33" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="D33" s="19" t="s">
-        <v>64</v>
-      </c>
-      <c r="E33" s="14">
+      <c r="D33" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="E33" s="12">
         <v>1</v>
       </c>
       <c r="F33" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="G33" s="19" t="s">
-        <v>64</v>
-      </c>
-      <c r="H33" s="14">
+      <c r="G33" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="H33" s="12">
         <v>1</v>
       </c>
       <c r="I33" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="J33" s="19" t="s">
+      <c r="J33" s="17" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="34" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="7" t="s">
+      <c r="A34" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="B34" s="14">
+      <c r="B34" s="12">
         <v>1.2</v>
       </c>
       <c r="C34" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="D34" s="19" t="s">
-        <v>64</v>
-      </c>
-      <c r="E34" s="14">
+      <c r="D34" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="E34" s="12">
         <v>1.2</v>
       </c>
       <c r="F34" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="G34" s="19" t="s">
-        <v>64</v>
-      </c>
-      <c r="H34" s="14">
+      <c r="G34" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="H34" s="12">
         <v>1.21</v>
       </c>
       <c r="I34" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="J34" s="19" t="s">
+        <v>124</v>
+      </c>
+      <c r="J34" s="17" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="35" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="7" t="s">
+      <c r="A35" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="B35" s="14">
+      <c r="B35" s="12">
         <v>1.08</v>
       </c>
       <c r="C35" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="D35" s="19" t="s">
-        <v>64</v>
-      </c>
-      <c r="E35" s="14">
+      <c r="D35" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="E35" s="12">
         <v>1.08</v>
       </c>
       <c r="F35" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="G35" s="19" t="s">
-        <v>64</v>
-      </c>
-      <c r="H35" s="14">
+      <c r="G35" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="H35" s="12">
         <v>1.08</v>
       </c>
       <c r="I35" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="J35" s="19" t="s">
+      <c r="J35" s="17" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="36" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="7" t="s">
+      <c r="A36" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="B36" s="14">
+      <c r="B36" s="12">
         <v>1.08</v>
       </c>
       <c r="C36" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="D36" s="19" t="s">
-        <v>64</v>
-      </c>
-      <c r="E36" s="14">
+      <c r="D36" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="E36" s="12">
         <v>1.08</v>
       </c>
       <c r="F36" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="G36" s="19" t="s">
-        <v>64</v>
-      </c>
-      <c r="H36" s="14">
+      <c r="G36" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="H36" s="12">
         <v>1.06</v>
       </c>
       <c r="I36" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="J36" s="19" t="s">
+        <v>125</v>
+      </c>
+      <c r="J36" s="17" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="37" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="7" t="s">
+      <c r="A37" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="B37" s="14">
+      <c r="B37" s="12">
         <v>1.1299999999999999</v>
       </c>
       <c r="C37" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="D37" s="19" t="s">
-        <v>64</v>
-      </c>
-      <c r="E37" s="14">
+      <c r="D37" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="E37" s="12">
         <v>1.1299999999999999</v>
       </c>
       <c r="F37" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="G37" s="19" t="s">
-        <v>64</v>
-      </c>
-      <c r="H37" s="14">
+      <c r="G37" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="H37" s="12">
         <v>1.0900000000000001</v>
       </c>
       <c r="I37" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="J37" s="19" t="s">
+        <v>126</v>
+      </c>
+      <c r="J37" s="17" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="38" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="7" t="s">
+      <c r="A38" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="B38" s="14" t="s">
+      <c r="B38" s="12" t="s">
         <v>64</v>
       </c>
       <c r="C38" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="D38" s="19" t="s">
+      <c r="D38" s="17" t="s">
         <v>91</v>
       </c>
-      <c r="E38" s="14" t="s">
+      <c r="E38" s="12" t="s">
         <v>64</v>
       </c>
       <c r="F38" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="G38" s="19" t="s">
+      <c r="G38" s="17" t="s">
         <v>91</v>
       </c>
-      <c r="H38" s="14" t="s">
+      <c r="H38" s="12" t="s">
         <v>64</v>
       </c>
       <c r="I38" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="J38" s="19" t="s">
+      <c r="J38" s="17" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="39" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="7" t="s">
+      <c r="A39" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="B39" s="14">
+      <c r="B39" s="12">
         <v>1</v>
       </c>
       <c r="C39" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="D39" s="19" t="s">
-        <v>64</v>
-      </c>
-      <c r="E39" s="14">
+      <c r="D39" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="E39" s="12">
         <v>1</v>
       </c>
       <c r="F39" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="G39" s="19" t="s">
-        <v>64</v>
-      </c>
-      <c r="H39" s="14">
+      <c r="G39" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="H39" s="12">
         <v>1</v>
       </c>
       <c r="I39" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="J39" s="19" t="s">
+      <c r="J39" s="17" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="40" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="7" t="s">
+      <c r="A40" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="B40" s="14">
+      <c r="B40" s="12">
         <v>0.94</v>
       </c>
       <c r="C40" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="D40" s="19" t="s">
-        <v>64</v>
-      </c>
-      <c r="E40" s="14">
+      <c r="D40" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="E40" s="12">
         <v>0.93</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="G40" s="19" t="s">
-        <v>64</v>
-      </c>
-      <c r="H40" s="14">
+        <v>100</v>
+      </c>
+      <c r="G40" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="H40" s="12">
         <v>0.92</v>
       </c>
       <c r="I40" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="J40" s="19" t="s">
+        <v>127</v>
+      </c>
+      <c r="J40" s="17" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="41" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="7" t="s">
+      <c r="A41" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="B41" s="14">
+      <c r="B41" s="12">
         <v>1.22</v>
       </c>
       <c r="C41" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="D41" s="19" t="s">
-        <v>64</v>
-      </c>
-      <c r="E41" s="14">
+      <c r="D41" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="E41" s="12">
         <v>1.2</v>
       </c>
       <c r="F41" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="G41" s="19" t="s">
-        <v>64</v>
-      </c>
-      <c r="H41" s="14">
+        <v>101</v>
+      </c>
+      <c r="G41" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="H41" s="12">
         <v>1.21</v>
       </c>
       <c r="I41" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="J41" s="19" t="s">
+        <v>128</v>
+      </c>
+      <c r="J41" s="17" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="42" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="7" t="s">
+      <c r="A42" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="B42" s="14">
+      <c r="B42" s="12">
         <v>1.32</v>
       </c>
       <c r="C42" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="D42" s="19" t="s">
-        <v>64</v>
-      </c>
-      <c r="E42" s="14">
+      <c r="D42" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="E42" s="12">
         <v>1.28</v>
       </c>
       <c r="F42" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="G42" s="19" t="s">
-        <v>64</v>
-      </c>
-      <c r="H42" s="14">
+        <v>102</v>
+      </c>
+      <c r="G42" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="H42" s="12">
         <v>1.31</v>
       </c>
       <c r="I42" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="J42" s="19" t="s">
+        <v>85</v>
+      </c>
+      <c r="J42" s="17" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="43" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="7" t="s">
+      <c r="A43" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="B43" s="14">
+      <c r="B43" s="12">
         <v>1.55</v>
       </c>
       <c r="C43" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="D43" s="19" t="s">
-        <v>64</v>
-      </c>
-      <c r="E43" s="14">
-        <v>1.51</v>
+      <c r="D43" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="E43" s="12">
+        <v>1.5</v>
       </c>
       <c r="F43" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="G43" s="19" t="s">
-        <v>64</v>
-      </c>
-      <c r="H43" s="14">
+        <v>103</v>
+      </c>
+      <c r="G43" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="H43" s="12">
         <v>1.48</v>
       </c>
       <c r="I43" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="J43" s="19" t="s">
+        <v>164</v>
+      </c>
+      <c r="J43" s="17" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="44" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="7" t="s">
+      <c r="A44" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="B44" s="14">
+      <c r="B44" s="12">
         <v>1.74</v>
       </c>
       <c r="C44" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="D44" s="19" t="s">
-        <v>64</v>
-      </c>
-      <c r="E44" s="14">
+      <c r="D44" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="E44" s="12">
+        <v>1.67</v>
+      </c>
+      <c r="F44" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="G44" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="H44" s="12">
         <v>1.68</v>
       </c>
-      <c r="F44" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="G44" s="19" t="s">
-        <v>64</v>
-      </c>
-      <c r="H44" s="14">
-        <v>1.7</v>
-      </c>
       <c r="I44" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="J44" s="19" t="s">
+        <v>104</v>
+      </c>
+      <c r="J44" s="17" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="45" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="7" t="s">
+      <c r="A45" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="B45" s="14" t="s">
+      <c r="B45" s="12" t="s">
         <v>64</v>
       </c>
       <c r="C45" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="D45" s="19">
+      <c r="D45" s="17">
         <v>0.86099999999999999</v>
       </c>
-      <c r="E45" s="14" t="s">
+      <c r="E45" s="12" t="s">
         <v>64</v>
       </c>
       <c r="F45" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="G45" s="19">
-        <v>0.36699999999999999</v>
-      </c>
-      <c r="H45" s="14" t="s">
+      <c r="G45" s="17">
+        <v>0.38600000000000001</v>
+      </c>
+      <c r="H45" s="12" t="s">
         <v>64</v>
       </c>
       <c r="I45" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="J45" s="19">
-        <v>0.83399999999999996</v>
+      <c r="J45" s="17">
+        <v>0.81299999999999994</v>
       </c>
     </row>
     <row r="46" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="7" t="s">
+      <c r="A46" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B46" s="14">
+      <c r="B46" s="12">
         <v>1</v>
       </c>
       <c r="C46" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="D46" s="19" t="s">
-        <v>64</v>
-      </c>
-      <c r="E46" s="14">
+      <c r="D46" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="E46" s="12">
         <v>1</v>
       </c>
       <c r="F46" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="G46" s="19" t="s">
-        <v>64</v>
-      </c>
-      <c r="H46" s="14">
+      <c r="G46" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="H46" s="12">
         <v>1</v>
       </c>
       <c r="I46" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="J46" s="19" t="s">
+      <c r="J46" s="17" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="47" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="7" t="s">
+      <c r="A47" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="B47" s="14">
+      <c r="B47" s="12">
         <v>0.99</v>
       </c>
       <c r="C47" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="D47" s="19" t="s">
-        <v>64</v>
-      </c>
-      <c r="E47" s="14">
+      <c r="D47" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="E47" s="12">
         <v>0.96</v>
       </c>
       <c r="F47" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="G47" s="19" t="s">
-        <v>64</v>
-      </c>
-      <c r="H47" s="14">
+        <v>105</v>
+      </c>
+      <c r="G47" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="H47" s="12">
         <v>1.01</v>
       </c>
       <c r="I47" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="J47" s="19" t="s">
+        <v>129</v>
+      </c>
+      <c r="J47" s="17" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="48" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="7" t="s">
+      <c r="A48" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="B48" s="14">
+      <c r="B48" s="12">
         <v>1</v>
       </c>
       <c r="C48" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="D48" s="19">
+      <c r="D48" s="17">
         <v>4.1000000000000002E-2</v>
       </c>
-      <c r="E48" s="14">
+      <c r="E48" s="12">
         <v>1</v>
       </c>
       <c r="F48" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="G48" s="19">
-        <v>4.2000000000000003E-2</v>
-      </c>
-      <c r="H48" s="14">
+        <v>166</v>
+      </c>
+      <c r="G48" s="17">
+        <v>3.1E-2</v>
+      </c>
+      <c r="H48" s="12">
         <v>1</v>
       </c>
       <c r="I48" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="J48" s="19">
-        <v>0.13800000000000001</v>
+      <c r="J48" s="17">
+        <v>0.106</v>
       </c>
     </row>
     <row r="49" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="7" t="s">
+      <c r="A49" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="B49" s="14" t="s">
+      <c r="B49" s="12" t="s">
         <v>64</v>
       </c>
       <c r="C49" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="D49" s="19" t="s">
-        <v>64</v>
-      </c>
-      <c r="E49" s="14">
+      <c r="D49" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="E49" s="12">
+        <v>0.93</v>
+      </c>
+      <c r="F49" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="G49" s="17">
+        <v>0.25900000000000001</v>
+      </c>
+      <c r="H49" s="12">
+        <v>0.95</v>
+      </c>
+      <c r="I49" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="J49" s="17">
+        <v>0.39700000000000002</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="B50" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="C50" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="D50" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="E50" s="12">
+        <v>0.99</v>
+      </c>
+      <c r="F50" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="G50" s="17">
+        <v>2.7E-2</v>
+      </c>
+      <c r="H50" s="12">
+        <v>0.98</v>
+      </c>
+      <c r="I50" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="J50" s="17">
+        <v>3.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B51" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="C51" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="D51" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="E51" s="12">
+        <v>1.01</v>
+      </c>
+      <c r="F51" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="G51" s="17">
+        <v>7.3999999999999996E-2</v>
+      </c>
+      <c r="H51" s="12">
+        <v>1.01</v>
+      </c>
+      <c r="I51" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="J51" s="17">
+        <v>9.8000000000000004E-2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="B52" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="C52" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="D52" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="E52" s="12">
+        <v>0.99</v>
+      </c>
+      <c r="F52" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="G52" s="17">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="H52" s="12">
+        <v>0.99</v>
+      </c>
+      <c r="I52" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="J52" s="17">
+        <v>2.1999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="B53" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="C53" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="D53" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="E53" s="12">
+        <v>1</v>
+      </c>
+      <c r="F53" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="G53" s="17">
+        <v>0.61199999999999999</v>
+      </c>
+      <c r="H53" s="12">
+        <v>1.01</v>
+      </c>
+      <c r="I53" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="J53" s="17">
+        <v>0.51400000000000001</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B54" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="C54" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="D54" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="E54" s="12">
+        <v>1</v>
+      </c>
+      <c r="F54" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="G54" s="17">
+        <v>0.76</v>
+      </c>
+      <c r="H54" s="12">
+        <v>1</v>
+      </c>
+      <c r="I54" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="J54" s="17">
+        <v>0.63400000000000001</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="B55" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="C55" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="D55" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="E55" s="12">
         <v>0.94</v>
       </c>
-      <c r="F49" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="G49" s="19">
-        <v>0.30099999999999999</v>
-      </c>
-      <c r="H49" s="14">
-        <v>0.96</v>
-      </c>
-      <c r="I49" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="J49" s="19">
-        <v>0.47299999999999998</v>
-      </c>
-    </row>
-    <row r="50" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="B50" s="14" t="s">
-        <v>64</v>
-      </c>
-      <c r="C50" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="D50" s="19" t="s">
-        <v>64</v>
-      </c>
-      <c r="E50" s="14">
-        <v>0.99</v>
-      </c>
-      <c r="F50" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="G50" s="19">
-        <v>3.5000000000000003E-2</v>
-      </c>
-      <c r="H50" s="14">
-        <v>0.99</v>
-      </c>
-      <c r="I50" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="J50" s="19">
-        <v>5.0000000000000001E-3</v>
-      </c>
-    </row>
-    <row r="51" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="B51" s="14" t="s">
-        <v>64</v>
-      </c>
-      <c r="C51" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="D51" s="19" t="s">
-        <v>64</v>
-      </c>
-      <c r="E51" s="14">
+      <c r="F55" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="G55" s="17">
+        <v>0.22</v>
+      </c>
+      <c r="H55" s="12">
+        <v>0.91</v>
+      </c>
+      <c r="I55" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="J55" s="17">
+        <v>3.1E-2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="B56" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="C56" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="D56" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="E56" s="12">
         <v>1.01</v>
       </c>
-      <c r="F51" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="G51" s="19">
-        <v>7.5999999999999998E-2</v>
-      </c>
-      <c r="H51" s="14">
-        <v>1.01</v>
-      </c>
-      <c r="I51" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="J51" s="19">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="52" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="B52" s="14" t="s">
-        <v>64</v>
-      </c>
-      <c r="C52" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="D52" s="19" t="s">
-        <v>64</v>
-      </c>
-      <c r="E52" s="14">
-        <v>0.99</v>
-      </c>
-      <c r="F52" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="G52" s="19">
-        <v>3.1E-2</v>
-      </c>
-      <c r="H52" s="14">
-        <v>0.99</v>
-      </c>
-      <c r="I52" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="J52" s="19">
-        <v>1.7000000000000001E-2</v>
-      </c>
-    </row>
-    <row r="53" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="B53" s="14" t="s">
-        <v>64</v>
-      </c>
-      <c r="C53" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="D53" s="19" t="s">
-        <v>64</v>
-      </c>
-      <c r="E53" s="14">
-        <v>1</v>
-      </c>
-      <c r="F53" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="G53" s="19">
-        <v>0.59699999999999998</v>
-      </c>
-      <c r="H53" s="14">
-        <v>1.01</v>
-      </c>
-      <c r="I53" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="J53" s="19">
-        <v>0.495</v>
-      </c>
-    </row>
-    <row r="54" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="B54" s="14" t="s">
-        <v>64</v>
-      </c>
-      <c r="C54" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="D54" s="19" t="s">
-        <v>64</v>
-      </c>
-      <c r="E54" s="14">
-        <v>1</v>
-      </c>
-      <c r="F54" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="G54" s="19">
-        <v>0.83699999999999997</v>
-      </c>
-      <c r="H54" s="14">
-        <v>1</v>
-      </c>
-      <c r="I54" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="J54" s="19">
-        <v>0.55700000000000005</v>
-      </c>
-    </row>
-    <row r="55" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="B55" s="14" t="s">
-        <v>64</v>
-      </c>
-      <c r="C55" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="D55" s="19" t="s">
-        <v>64</v>
-      </c>
-      <c r="E55" s="14">
-        <v>0.94</v>
-      </c>
-      <c r="F55" s="3" t="s">
+      <c r="F56" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="G55" s="19">
-        <v>0.20300000000000001</v>
-      </c>
-      <c r="H55" s="14">
-        <v>0.9</v>
-      </c>
-      <c r="I55" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="J55" s="19">
-        <v>2.8000000000000001E-2</v>
-      </c>
-    </row>
-    <row r="56" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="B56" s="14" t="s">
-        <v>64</v>
-      </c>
-      <c r="C56" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="D56" s="19" t="s">
-        <v>64</v>
-      </c>
-      <c r="E56" s="14">
-        <v>1.01</v>
-      </c>
-      <c r="F56" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="G56" s="19">
-        <v>0.47499999999999998</v>
-      </c>
-      <c r="H56" s="14">
+      <c r="G56" s="17">
+        <v>0.45700000000000002</v>
+      </c>
+      <c r="H56" s="12">
         <v>1.02</v>
       </c>
       <c r="I56" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="J56" s="19">
-        <v>0.107</v>
+        <v>130</v>
+      </c>
+      <c r="J56" s="17">
+        <v>0.10100000000000001</v>
       </c>
     </row>
     <row r="57" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="7" t="s">
+      <c r="A57" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="B57" s="14" t="s">
+      <c r="B57" s="12" t="s">
         <v>64</v>
       </c>
       <c r="C57" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="D57" s="19" t="s">
-        <v>64</v>
-      </c>
-      <c r="E57" s="14" t="s">
+      <c r="D57" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="E57" s="12" t="s">
         <v>64</v>
       </c>
       <c r="F57" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="G57" s="19" t="s">
-        <v>64</v>
-      </c>
-      <c r="H57" s="14" t="s">
+      <c r="G57" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="H57" s="12" t="s">
         <v>64</v>
       </c>
       <c r="I57" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="J57" s="19">
-        <v>7.4999999999999997E-2</v>
+      <c r="J57" s="17">
+        <v>7.6999999999999999E-2</v>
       </c>
     </row>
     <row r="58" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="7" t="s">
+      <c r="A58" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="B58" s="14" t="s">
+      <c r="B58" s="12" t="s">
         <v>64</v>
       </c>
       <c r="C58" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="D58" s="19" t="s">
-        <v>64</v>
-      </c>
-      <c r="E58" s="14" t="s">
+      <c r="D58" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="E58" s="12" t="s">
         <v>64</v>
       </c>
       <c r="F58" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="G58" s="19" t="s">
-        <v>64</v>
-      </c>
-      <c r="H58" s="14">
+      <c r="G58" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="H58" s="12">
         <v>1</v>
       </c>
       <c r="I58" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="J58" s="19" t="s">
+      <c r="J58" s="17" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="59" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="7" t="s">
+      <c r="A59" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="B59" s="14" t="s">
+      <c r="B59" s="12" t="s">
         <v>64</v>
       </c>
       <c r="C59" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="D59" s="19" t="s">
-        <v>64</v>
-      </c>
-      <c r="E59" s="14" t="s">
+      <c r="D59" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="E59" s="12" t="s">
         <v>64</v>
       </c>
       <c r="F59" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="G59" s="19" t="s">
-        <v>64</v>
-      </c>
-      <c r="H59" s="14">
+      <c r="G59" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="H59" s="12">
         <v>1.1299999999999999</v>
       </c>
       <c r="I59" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="J59" s="19" t="s">
+        <v>131</v>
+      </c>
+      <c r="J59" s="17" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="60" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="7" t="s">
+      <c r="A60" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="B60" s="14" t="s">
+      <c r="B60" s="12" t="s">
         <v>64</v>
       </c>
       <c r="C60" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="D60" s="19" t="s">
-        <v>64</v>
-      </c>
-      <c r="E60" s="14" t="s">
+      <c r="D60" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="E60" s="12" t="s">
         <v>64</v>
       </c>
       <c r="F60" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="G60" s="19" t="s">
-        <v>64</v>
-      </c>
-      <c r="H60" s="14" t="s">
+      <c r="G60" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="H60" s="12" t="s">
         <v>64</v>
       </c>
       <c r="I60" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="J60" s="19" t="s">
+      <c r="J60" s="17" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="61" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="7" t="s">
+      <c r="A61" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="B61" s="14" t="s">
+      <c r="B61" s="12" t="s">
         <v>64</v>
       </c>
       <c r="C61" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="D61" s="19" t="s">
-        <v>64</v>
-      </c>
-      <c r="E61" s="14" t="s">
+      <c r="D61" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="E61" s="12" t="s">
         <v>64</v>
       </c>
       <c r="F61" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="G61" s="19" t="s">
-        <v>64</v>
-      </c>
-      <c r="H61" s="14">
+      <c r="G61" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="H61" s="12">
         <v>1</v>
       </c>
       <c r="I61" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="J61" s="19" t="s">
+      <c r="J61" s="17" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="62" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="7" t="s">
+      <c r="A62" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="B62" s="14" t="s">
+      <c r="B62" s="12" t="s">
         <v>64</v>
       </c>
       <c r="C62" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="D62" s="19" t="s">
-        <v>64</v>
-      </c>
-      <c r="E62" s="14" t="s">
+      <c r="D62" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="E62" s="12" t="s">
         <v>64</v>
       </c>
       <c r="F62" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="G62" s="19" t="s">
-        <v>64</v>
-      </c>
-      <c r="H62" s="14">
+      <c r="G62" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="H62" s="12">
         <v>2.0099999999999998</v>
       </c>
       <c r="I62" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="J62" s="19" t="s">
+        <v>170</v>
+      </c>
+      <c r="J62" s="17" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="63" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="7" t="s">
+      <c r="A63" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="B63" s="14" t="s">
+      <c r="B63" s="12" t="s">
         <v>64</v>
       </c>
       <c r="C63" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="D63" s="19" t="s">
-        <v>64</v>
-      </c>
-      <c r="E63" s="14" t="s">
+      <c r="D63" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="E63" s="12" t="s">
         <v>64</v>
       </c>
       <c r="F63" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="G63" s="19" t="s">
-        <v>64</v>
-      </c>
-      <c r="H63" s="14" t="s">
+      <c r="G63" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="H63" s="12" t="s">
         <v>64</v>
       </c>
       <c r="I63" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="J63" s="19" t="s">
+      <c r="J63" s="17" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="64" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="7" t="s">
+      <c r="A64" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="B64" s="14" t="s">
+      <c r="B64" s="12" t="s">
         <v>64</v>
       </c>
       <c r="C64" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="D64" s="19" t="s">
-        <v>64</v>
-      </c>
-      <c r="E64" s="14" t="s">
+      <c r="D64" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="E64" s="12" t="s">
         <v>64</v>
       </c>
       <c r="F64" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="G64" s="19" t="s">
-        <v>64</v>
-      </c>
-      <c r="H64" s="14">
+      <c r="G64" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="H64" s="12">
         <v>1</v>
       </c>
       <c r="I64" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="J64" s="19" t="s">
+      <c r="J64" s="17" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="65" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="7" t="s">
+      <c r="A65" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="B65" s="14" t="s">
+      <c r="B65" s="12" t="s">
         <v>64</v>
       </c>
       <c r="C65" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="D65" s="19" t="s">
-        <v>64</v>
-      </c>
-      <c r="E65" s="14" t="s">
+      <c r="D65" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="E65" s="12" t="s">
         <v>64</v>
       </c>
       <c r="F65" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="G65" s="19" t="s">
-        <v>64</v>
-      </c>
-      <c r="H65" s="14">
+      <c r="G65" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="H65" s="12">
         <v>1.49</v>
       </c>
       <c r="I65" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="J65" s="19" t="s">
+        <v>132</v>
+      </c>
+      <c r="J65" s="17" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="66" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="7" t="s">
+      <c r="A66" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="B66" s="14" t="s">
+      <c r="B66" s="12" t="s">
         <v>64</v>
       </c>
       <c r="C66" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="D66" s="19" t="s">
-        <v>64</v>
-      </c>
-      <c r="E66" s="14" t="s">
+      <c r="D66" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="E66" s="12" t="s">
         <v>64</v>
       </c>
       <c r="F66" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="G66" s="19" t="s">
-        <v>64</v>
-      </c>
-      <c r="H66" s="14" t="s">
+      <c r="G66" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="H66" s="12" t="s">
         <v>64</v>
       </c>
       <c r="I66" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="J66" s="19" t="s">
+      <c r="J66" s="17" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="67" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="7" t="s">
+      <c r="A67" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="B67" s="14" t="s">
+      <c r="B67" s="12" t="s">
         <v>64</v>
       </c>
       <c r="C67" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="D67" s="19" t="s">
-        <v>64</v>
-      </c>
-      <c r="E67" s="14" t="s">
+      <c r="D67" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="E67" s="12" t="s">
         <v>64</v>
       </c>
       <c r="F67" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="G67" s="19" t="s">
-        <v>64</v>
-      </c>
-      <c r="H67" s="14">
+      <c r="G67" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="H67" s="12">
         <v>1</v>
       </c>
       <c r="I67" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="J67" s="19" t="s">
+      <c r="J67" s="17" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="68" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="7" t="s">
+      <c r="A68" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="B68" s="14" t="s">
+      <c r="B68" s="12" t="s">
         <v>64</v>
       </c>
       <c r="C68" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="D68" s="19" t="s">
-        <v>64</v>
-      </c>
-      <c r="E68" s="14" t="s">
+      <c r="D68" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="E68" s="12" t="s">
         <v>64</v>
       </c>
       <c r="F68" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="G68" s="19" t="s">
-        <v>64</v>
-      </c>
-      <c r="H68" s="14">
+      <c r="G68" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="H68" s="12">
         <v>1.25</v>
       </c>
       <c r="I68" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="J68" s="19" t="s">
+        <v>171</v>
+      </c>
+      <c r="J68" s="17" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="69" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="7" t="s">
+      <c r="A69" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="B69" s="14" t="s">
+      <c r="B69" s="12" t="s">
         <v>64</v>
       </c>
       <c r="C69" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="D69" s="19" t="s">
-        <v>64</v>
-      </c>
-      <c r="E69" s="14" t="s">
+      <c r="D69" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="E69" s="12" t="s">
         <v>64</v>
       </c>
       <c r="F69" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="G69" s="19" t="s">
-        <v>64</v>
-      </c>
-      <c r="H69" s="14" t="s">
+      <c r="G69" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="H69" s="12" t="s">
         <v>64</v>
       </c>
       <c r="I69" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="J69" s="19" t="s">
+      <c r="J69" s="17" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="70" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="7" t="s">
+      <c r="A70" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="B70" s="14" t="s">
+      <c r="B70" s="12" t="s">
         <v>64</v>
       </c>
       <c r="C70" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="D70" s="19" t="s">
-        <v>64</v>
-      </c>
-      <c r="E70" s="14" t="s">
+      <c r="D70" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="E70" s="12" t="s">
         <v>64</v>
       </c>
       <c r="F70" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="G70" s="19" t="s">
-        <v>64</v>
-      </c>
-      <c r="H70" s="14">
+      <c r="G70" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="H70" s="12">
         <v>1</v>
       </c>
       <c r="I70" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="J70" s="19" t="s">
+      <c r="J70" s="17" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="71" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="7" t="s">
+      <c r="A71" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="B71" s="14" t="s">
+      <c r="B71" s="12" t="s">
         <v>64</v>
       </c>
       <c r="C71" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="D71" s="19" t="s">
-        <v>64</v>
-      </c>
-      <c r="E71" s="14" t="s">
+      <c r="D71" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="E71" s="12" t="s">
         <v>64</v>
       </c>
       <c r="F71" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="G71" s="19" t="s">
-        <v>64</v>
-      </c>
-      <c r="H71" s="14">
+      <c r="G71" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="H71" s="12">
         <v>1.31</v>
       </c>
       <c r="I71" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="J71" s="19" t="s">
+        <v>133</v>
+      </c>
+      <c r="J71" s="17" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="72" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="7" t="s">
+      <c r="A72" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="B72" s="14" t="s">
+      <c r="B72" s="12" t="s">
         <v>64</v>
       </c>
       <c r="C72" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="D72" s="19" t="s">
-        <v>64</v>
-      </c>
-      <c r="E72" s="14" t="s">
+      <c r="D72" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="E72" s="12" t="s">
         <v>64</v>
       </c>
       <c r="F72" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="G72" s="19" t="s">
-        <v>64</v>
-      </c>
-      <c r="H72" s="14" t="s">
+      <c r="G72" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="H72" s="12" t="s">
         <v>64</v>
       </c>
       <c r="I72" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="J72" s="19" t="s">
+      <c r="J72" s="17" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="73" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="7" t="s">
+      <c r="A73" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="B73" s="14" t="s">
+      <c r="B73" s="12" t="s">
         <v>64</v>
       </c>
       <c r="C73" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="D73" s="19" t="s">
-        <v>64</v>
-      </c>
-      <c r="E73" s="14" t="s">
+      <c r="D73" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="E73" s="12" t="s">
         <v>64</v>
       </c>
       <c r="F73" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="G73" s="19" t="s">
-        <v>64</v>
-      </c>
-      <c r="H73" s="14">
+      <c r="G73" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="H73" s="12">
         <v>1</v>
       </c>
       <c r="I73" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="J73" s="19" t="s">
+      <c r="J73" s="17" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="74" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A74" s="7" t="s">
+      <c r="A74" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="B74" s="14" t="s">
+      <c r="B74" s="12" t="s">
         <v>64</v>
       </c>
       <c r="C74" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="D74" s="19" t="s">
-        <v>64</v>
-      </c>
-      <c r="E74" s="14" t="s">
+      <c r="D74" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="E74" s="12" t="s">
         <v>64</v>
       </c>
       <c r="F74" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="G74" s="19" t="s">
-        <v>64</v>
-      </c>
-      <c r="H74" s="14">
+      <c r="G74" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="H74" s="12">
         <v>1.28</v>
       </c>
       <c r="I74" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="J74" s="19" t="s">
+        <v>134</v>
+      </c>
+      <c r="J74" s="17" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="75" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="7" t="s">
+      <c r="A75" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="B75" s="14" t="s">
+      <c r="B75" s="12" t="s">
         <v>64</v>
       </c>
       <c r="C75" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="D75" s="19" t="s">
-        <v>64</v>
-      </c>
-      <c r="E75" s="14" t="s">
+      <c r="D75" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="E75" s="12" t="s">
         <v>64</v>
       </c>
       <c r="F75" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="G75" s="19" t="s">
-        <v>64</v>
-      </c>
-      <c r="H75" s="14" t="s">
+      <c r="G75" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="H75" s="12" t="s">
         <v>64</v>
       </c>
       <c r="I75" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="J75" s="19">
-        <v>0.04</v>
+      <c r="J75" s="17">
+        <v>4.5999999999999999E-2</v>
       </c>
     </row>
     <row r="76" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="7" t="s">
+      <c r="A76" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="B76" s="14" t="s">
+      <c r="B76" s="12" t="s">
         <v>64</v>
       </c>
       <c r="C76" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="D76" s="19" t="s">
-        <v>64</v>
-      </c>
-      <c r="E76" s="14" t="s">
+      <c r="D76" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="E76" s="12" t="s">
         <v>64</v>
       </c>
       <c r="F76" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="G76" s="19" t="s">
-        <v>64</v>
-      </c>
-      <c r="H76" s="14">
+      <c r="G76" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="H76" s="12">
         <v>1</v>
       </c>
       <c r="I76" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="J76" s="19" t="s">
+      <c r="J76" s="17" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="77" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A77" s="7" t="s">
+      <c r="A77" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="B77" s="14" t="s">
+      <c r="B77" s="12" t="s">
         <v>64</v>
       </c>
       <c r="C77" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="D77" s="19" t="s">
-        <v>64</v>
-      </c>
-      <c r="E77" s="14" t="s">
+      <c r="D77" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="E77" s="12" t="s">
         <v>64</v>
       </c>
       <c r="F77" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="G77" s="19" t="s">
-        <v>64</v>
-      </c>
-      <c r="H77" s="14">
-        <v>1.27</v>
+      <c r="G77" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="H77" s="12">
+        <v>1.26</v>
       </c>
       <c r="I77" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="J77" s="19" t="s">
+        <v>172</v>
+      </c>
+      <c r="J77" s="17" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="78" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="7" t="s">
+      <c r="A78" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="B78" s="14" t="s">
+      <c r="B78" s="12" t="s">
         <v>64</v>
       </c>
       <c r="C78" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="D78" s="19" t="s">
-        <v>64</v>
-      </c>
-      <c r="E78" s="14" t="s">
+      <c r="D78" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="E78" s="12" t="s">
         <v>64</v>
       </c>
       <c r="F78" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="G78" s="19" t="s">
-        <v>64</v>
-      </c>
-      <c r="H78" s="14" t="s">
+      <c r="G78" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="H78" s="12" t="s">
         <v>64</v>
       </c>
       <c r="I78" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="J78" s="19" t="s">
+      <c r="J78" s="17" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="79" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A79" s="7" t="s">
+      <c r="A79" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="B79" s="14" t="s">
+      <c r="B79" s="12" t="s">
         <v>64</v>
       </c>
       <c r="C79" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="D79" s="19" t="s">
-        <v>64</v>
-      </c>
-      <c r="E79" s="14" t="s">
+      <c r="D79" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="E79" s="12" t="s">
         <v>64</v>
       </c>
       <c r="F79" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="G79" s="19" t="s">
-        <v>64</v>
-      </c>
-      <c r="H79" s="14">
+      <c r="G79" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="H79" s="12">
         <v>1</v>
       </c>
       <c r="I79" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="J79" s="19" t="s">
+      <c r="J79" s="17" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="80" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A80" s="7" t="s">
+      <c r="A80" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="B80" s="14" t="s">
+      <c r="B80" s="12" t="s">
         <v>64</v>
       </c>
       <c r="C80" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="D80" s="19" t="s">
-        <v>64</v>
-      </c>
-      <c r="E80" s="14" t="s">
+      <c r="D80" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="E80" s="12" t="s">
         <v>64</v>
       </c>
       <c r="F80" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="G80" s="19" t="s">
-        <v>64</v>
-      </c>
-      <c r="H80" s="14">
+      <c r="G80" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="H80" s="12">
         <v>1.24</v>
       </c>
       <c r="I80" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="J80" s="19" t="s">
+        <v>135</v>
+      </c>
+      <c r="J80" s="17" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="81" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A81" s="7" t="s">
+      <c r="A81" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="B81" s="14" t="s">
+      <c r="B81" s="12" t="s">
         <v>64</v>
       </c>
       <c r="C81" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="D81" s="19" t="s">
-        <v>64</v>
-      </c>
-      <c r="E81" s="14" t="s">
+      <c r="D81" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="E81" s="12" t="s">
         <v>64</v>
       </c>
       <c r="F81" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="G81" s="19" t="s">
-        <v>64</v>
-      </c>
-      <c r="H81" s="14" t="s">
+      <c r="G81" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="H81" s="12" t="s">
         <v>64</v>
       </c>
       <c r="I81" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="J81" s="19">
-        <v>5.0000000000000001E-3</v>
+      <c r="J81" s="17">
+        <v>6.0000000000000001E-3</v>
       </c>
     </row>
     <row r="82" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A82" s="7" t="s">
+      <c r="A82" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="B82" s="14" t="s">
+      <c r="B82" s="12" t="s">
         <v>64</v>
       </c>
       <c r="C82" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="D82" s="19" t="s">
-        <v>64</v>
-      </c>
-      <c r="E82" s="14" t="s">
+      <c r="D82" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="E82" s="12" t="s">
         <v>64</v>
       </c>
       <c r="F82" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="G82" s="19" t="s">
-        <v>64</v>
-      </c>
-      <c r="H82" s="14">
+      <c r="G82" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="H82" s="12">
         <v>1</v>
       </c>
       <c r="I82" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="J82" s="19" t="s">
+      <c r="J82" s="17" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="83" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A83" s="10" t="s">
+      <c r="A83" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="B83" s="15" t="s">
+      <c r="B83" s="13" t="s">
         <v>64</v>
       </c>
       <c r="C83" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="D83" s="20" t="s">
-        <v>64</v>
-      </c>
-      <c r="E83" s="15" t="s">
+      <c r="D83" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="E83" s="13" t="s">
         <v>64</v>
       </c>
       <c r="F83" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="G83" s="20" t="s">
-        <v>64</v>
-      </c>
-      <c r="H83" s="15">
+      <c r="G83" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="H83" s="13">
         <v>1.18</v>
       </c>
       <c r="I83" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="J83" s="20" t="s">
+        <v>136</v>
+      </c>
+      <c r="J83" s="18" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="84" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A84" s="5" t="s">
+      <c r="A84" s="29" t="s">
         <v>61</v>
       </c>
-      <c r="B84" s="5" t="s">
+      <c r="B84" s="29" t="s">
         <v>61</v>
       </c>
-      <c r="C84" s="5" t="s">
+      <c r="C84" s="29" t="s">
         <v>61</v>
       </c>
-      <c r="D84" s="5" t="s">
+      <c r="D84" s="29" t="s">
         <v>61</v>
       </c>
-      <c r="E84" s="5" t="s">
+      <c r="E84" s="29" t="s">
         <v>61</v>
       </c>
-      <c r="F84" s="5" t="s">
+      <c r="F84" s="29" t="s">
         <v>61</v>
       </c>
-      <c r="G84" s="5" t="s">
+      <c r="G84" s="29" t="s">
         <v>61</v>
       </c>
-      <c r="H84" s="5" t="s">
+      <c r="H84" s="29" t="s">
         <v>61</v>
       </c>
-      <c r="I84" s="5" t="s">
+      <c r="I84" s="29" t="s">
         <v>61</v>
       </c>
-      <c r="J84" s="5" t="s">
+      <c r="J84" s="29" t="s">
         <v>61</v>
       </c>
     </row>
@@ -3690,66 +3731,66 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA2CDF2F-C526-4152-A9F9-BC7AE9918E35}">
-  <dimension ref="B1:R18"/>
+  <dimension ref="B1:R39"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="O16" sqref="O16"/>
+      <selection activeCell="O5" sqref="O5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="0" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="8.88671875" hidden="1" customWidth="1"/>
     <col min="3" max="3" width="17.77734375" hidden="1" customWidth="1"/>
-    <col min="4" max="12" width="0" hidden="1" customWidth="1"/>
+    <col min="4" max="12" width="8.88671875" hidden="1" customWidth="1"/>
     <col min="13" max="13" width="21" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="21" customWidth="1"/>
     <col min="15" max="18" width="16.77734375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="M1" s="11" t="s">
-        <v>175</v>
+      <c r="M1" s="9" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="2" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
-        <v>151</v>
+        <v>141</v>
       </c>
       <c r="C2" t="s">
-        <v>152</v>
+        <v>142</v>
       </c>
       <c r="D2" t="s">
-        <v>153</v>
+        <v>143</v>
       </c>
       <c r="E2" t="s">
-        <v>154</v>
+        <v>144</v>
       </c>
       <c r="F2" t="s">
+        <v>145</v>
+      </c>
+      <c r="M2" s="22"/>
+      <c r="N2" s="31" t="s">
         <v>155</v>
       </c>
-      <c r="M2" s="24"/>
-      <c r="N2" s="30" t="s">
-        <v>168</v>
-      </c>
-      <c r="O2" s="31"/>
-      <c r="P2" s="31"/>
-      <c r="Q2" s="31"/>
-      <c r="R2" s="31"/>
+      <c r="O2" s="32"/>
+      <c r="P2" s="32"/>
+      <c r="Q2" s="32"/>
+      <c r="R2" s="32"/>
     </row>
     <row r="3" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" t="s">
-        <v>156</v>
+        <v>146</v>
       </c>
       <c r="C3" t="s">
-        <v>157</v>
-      </c>
-      <c r="D3" s="21">
+        <v>147</v>
+      </c>
+      <c r="D3" s="19">
         <v>0.998</v>
       </c>
-      <c r="E3" s="21">
+      <c r="E3" s="19">
         <v>0.94399999999999995</v>
       </c>
-      <c r="F3" s="21">
+      <c r="F3" s="19">
         <v>1.06</v>
       </c>
       <c r="G3" t="str">
@@ -3768,39 +3809,39 @@
         <f>_xlfn.CONCAT(G3," (",H3, " ,", I3,")")</f>
         <v>1.00 (0.94 ,1.06)</v>
       </c>
-      <c r="M3" s="26" t="s">
-        <v>167</v>
-      </c>
-      <c r="N3" s="27" t="s">
-        <v>173</v>
-      </c>
-      <c r="O3" s="27" t="s">
-        <v>169</v>
-      </c>
-      <c r="P3" s="27" t="s">
-        <v>170</v>
-      </c>
-      <c r="Q3" s="27" t="s">
-        <v>171</v>
-      </c>
-      <c r="R3" s="27" t="s">
-        <v>172</v>
+      <c r="M3" s="24" t="s">
+        <v>154</v>
+      </c>
+      <c r="N3" s="25" t="s">
+        <v>160</v>
+      </c>
+      <c r="O3" s="25" t="s">
+        <v>156</v>
+      </c>
+      <c r="P3" s="25" t="s">
+        <v>157</v>
+      </c>
+      <c r="Q3" s="25" t="s">
+        <v>158</v>
+      </c>
+      <c r="R3" s="25" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="4" spans="2:18" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
-        <v>156</v>
+        <v>146</v>
       </c>
       <c r="C4" t="s">
-        <v>158</v>
-      </c>
-      <c r="D4" s="21">
+        <v>148</v>
+      </c>
+      <c r="D4" s="19">
         <v>0.98699999999999999</v>
       </c>
-      <c r="E4" s="21">
+      <c r="E4" s="19">
         <v>0.93</v>
       </c>
-      <c r="F4" s="21">
+      <c r="F4" s="19">
         <v>1.05</v>
       </c>
       <c r="G4" t="str">
@@ -3816,46 +3857,46 @@
         <v>1.05</v>
       </c>
       <c r="J4" t="str">
-        <f t="shared" ref="J4:J18" si="4">_xlfn.CONCAT(G4," (",H4, " ,", I4,")")</f>
+        <f t="shared" ref="J4:J22" si="4">_xlfn.CONCAT(G4," (",H4, " ,", I4,")")</f>
         <v>0.99 (0.93 ,1.05)</v>
       </c>
-      <c r="M4" s="25">
+      <c r="M4" s="23">
         <v>0</v>
       </c>
-      <c r="N4" s="29" t="s">
-        <v>174</v>
-      </c>
-      <c r="O4" s="23" t="str">
+      <c r="N4" s="28" t="s">
+        <v>161</v>
+      </c>
+      <c r="O4" s="21" t="str">
         <f>J3</f>
         <v>1.00 (0.94 ,1.06)</v>
       </c>
-      <c r="P4" s="23" t="str">
+      <c r="P4" s="21" t="str">
         <f>J4</f>
         <v>0.99 (0.93 ,1.05)</v>
       </c>
-      <c r="Q4" s="28" t="str">
+      <c r="Q4" s="26" t="str">
         <f>J5</f>
         <v>0.92 (0.86 ,0.98)</v>
       </c>
-      <c r="R4" s="23" t="str">
+      <c r="R4" s="21" t="str">
         <f>J6</f>
         <v>0.97 (0.90 ,1.04)</v>
       </c>
     </row>
     <row r="5" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
-        <v>156</v>
+        <v>146</v>
       </c>
       <c r="C5" t="s">
-        <v>159</v>
-      </c>
-      <c r="D5" s="21">
+        <v>149</v>
+      </c>
+      <c r="D5" s="19">
         <v>0.91900000000000004</v>
       </c>
-      <c r="E5" s="21">
+      <c r="E5" s="19">
         <v>0.86099999999999999</v>
       </c>
-      <c r="F5" s="21">
+      <c r="F5" s="19">
         <v>0.98099999999999998</v>
       </c>
       <c r="G5" t="str">
@@ -3874,43 +3915,43 @@
         <f t="shared" si="4"/>
         <v>0.92 (0.86 ,0.98)</v>
       </c>
-      <c r="M5" s="25">
+      <c r="M5" s="23">
         <v>10</v>
       </c>
-      <c r="N5" s="29" t="s">
-        <v>174</v>
-      </c>
-      <c r="O5" s="23" t="str">
+      <c r="N5" s="28" t="s">
+        <v>161</v>
+      </c>
+      <c r="O5" s="21" t="str">
         <f>J7</f>
         <v>0.97 (0.92 ,1.02)</v>
       </c>
-      <c r="P5" s="23" t="str">
+      <c r="P5" s="21" t="str">
         <f>J8</f>
         <v>0.96 (0.91 ,1.02)</v>
       </c>
-      <c r="Q5" s="28" t="str">
+      <c r="Q5" s="26" t="str">
         <f>J9</f>
         <v>0.89 (0.83 ,0.94)</v>
       </c>
-      <c r="R5" s="23" t="str">
+      <c r="R5" s="21" t="str">
         <f>J10</f>
         <v>0.93 (0.87 ,1.00)</v>
       </c>
     </row>
     <row r="6" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
-        <v>156</v>
+        <v>146</v>
       </c>
       <c r="C6" t="s">
-        <v>160</v>
-      </c>
-      <c r="D6" s="21">
+        <v>150</v>
+      </c>
+      <c r="D6" s="19">
         <v>0.96799999999999997</v>
       </c>
-      <c r="E6" s="21">
+      <c r="E6" s="19">
         <v>0.89700000000000002</v>
       </c>
-      <c r="F6" s="21">
+      <c r="F6" s="19">
         <v>1.04</v>
       </c>
       <c r="G6" t="str">
@@ -3929,43 +3970,43 @@
         <f t="shared" si="4"/>
         <v>0.97 (0.90 ,1.04)</v>
       </c>
-      <c r="M6" s="25">
+      <c r="M6" s="23">
         <v>30</v>
       </c>
-      <c r="N6" s="29" t="s">
-        <v>174</v>
-      </c>
-      <c r="O6" s="28" t="str">
+      <c r="N6" s="28" t="s">
+        <v>161</v>
+      </c>
+      <c r="O6" s="26" t="str">
         <f>J11</f>
         <v>0.90 (0.83 ,0.98)</v>
       </c>
-      <c r="P6" s="28" t="str">
+      <c r="P6" s="26" t="str">
         <f>J12</f>
         <v>0.92 (0.85 ,0.99)</v>
       </c>
-      <c r="Q6" s="28" t="str">
+      <c r="Q6" s="26" t="str">
         <f>J13</f>
         <v>0.82 (0.76 ,0.89)</v>
       </c>
-      <c r="R6" s="28" t="str">
+      <c r="R6" s="26" t="str">
         <f>J14</f>
         <v>0.87 (0.81 ,0.94)</v>
       </c>
     </row>
     <row r="7" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
-        <v>161</v>
+        <v>151</v>
       </c>
       <c r="C7" t="s">
-        <v>157</v>
-      </c>
-      <c r="D7" s="21">
+        <v>147</v>
+      </c>
+      <c r="D7" s="19">
         <v>0.96499999999999997</v>
       </c>
-      <c r="E7" s="21">
+      <c r="E7" s="19">
         <v>0.91600000000000004</v>
       </c>
-      <c r="F7" s="21">
+      <c r="F7" s="19">
         <v>1.02</v>
       </c>
       <c r="G7" t="str">
@@ -3984,43 +4025,43 @@
         <f t="shared" si="4"/>
         <v>0.97 (0.92 ,1.02)</v>
       </c>
-      <c r="M7" s="25">
+      <c r="M7" s="23">
         <v>100</v>
       </c>
-      <c r="N7" s="29" t="s">
-        <v>174</v>
-      </c>
-      <c r="O7" s="28" t="str">
+      <c r="N7" s="28" t="s">
+        <v>161</v>
+      </c>
+      <c r="O7" s="26" t="str">
         <f>J15</f>
         <v>0.72 (0.56 ,0.92)</v>
       </c>
-      <c r="P7" s="28" t="str">
+      <c r="P7" s="26" t="str">
         <f>J16</f>
         <v>0.77 (0.61 ,0.96)</v>
       </c>
-      <c r="Q7" s="28" t="str">
+      <c r="Q7" s="26" t="str">
         <f>J17</f>
         <v>0.63 (0.51 ,0.79)</v>
       </c>
-      <c r="R7" s="28" t="str">
+      <c r="R7" s="26" t="str">
         <f>J18</f>
         <v>0.68 (0.55 ,0.85)</v>
       </c>
     </row>
     <row r="8" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
-        <v>161</v>
+        <v>151</v>
       </c>
       <c r="C8" t="s">
-        <v>158</v>
-      </c>
-      <c r="D8" s="21">
+        <v>148</v>
+      </c>
+      <c r="D8" s="19">
         <v>0.96299999999999997</v>
       </c>
-      <c r="E8" s="21">
+      <c r="E8" s="19">
         <v>0.91100000000000003</v>
       </c>
-      <c r="F8" s="21">
+      <c r="F8" s="19">
         <v>1.02</v>
       </c>
       <c r="G8" t="str">
@@ -4042,18 +4083,18 @@
     </row>
     <row r="9" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
-        <v>161</v>
+        <v>151</v>
       </c>
       <c r="C9" t="s">
-        <v>159</v>
-      </c>
-      <c r="D9" s="21">
+        <v>149</v>
+      </c>
+      <c r="D9" s="19">
         <v>0.88500000000000001</v>
       </c>
-      <c r="E9" s="21">
+      <c r="E9" s="19">
         <v>0.83399999999999996</v>
       </c>
-      <c r="F9" s="21">
+      <c r="F9" s="19">
         <v>0.93899999999999995</v>
       </c>
       <c r="G9" t="str">
@@ -4072,21 +4113,24 @@
         <f t="shared" si="4"/>
         <v>0.89 (0.83 ,0.94)</v>
       </c>
+      <c r="M9" s="9" t="s">
+        <v>173</v>
+      </c>
     </row>
     <row r="10" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
-        <v>161</v>
+        <v>151</v>
       </c>
       <c r="C10" t="s">
-        <v>160</v>
-      </c>
-      <c r="D10" s="21">
+        <v>150</v>
+      </c>
+      <c r="D10" s="19">
         <v>0.93400000000000005</v>
       </c>
-      <c r="E10" s="21">
+      <c r="E10" s="19">
         <v>0.872</v>
       </c>
-      <c r="F10" s="21">
+      <c r="F10" s="19">
         <v>1</v>
       </c>
       <c r="G10" t="str">
@@ -4105,21 +4149,29 @@
         <f t="shared" si="4"/>
         <v>0.93 (0.87 ,1.00)</v>
       </c>
-    </row>
-    <row r="11" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="M10" s="22"/>
+      <c r="N10" s="31" t="s">
+        <v>155</v>
+      </c>
+      <c r="O10" s="32"/>
+      <c r="P10" s="32"/>
+      <c r="Q10" s="32"/>
+      <c r="R10" s="32"/>
+    </row>
+    <row r="11" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B11" t="s">
-        <v>162</v>
+        <v>152</v>
       </c>
       <c r="C11" t="s">
-        <v>157</v>
-      </c>
-      <c r="D11" s="21">
+        <v>147</v>
+      </c>
+      <c r="D11" s="19">
         <v>0.90300000000000002</v>
       </c>
-      <c r="E11" s="21">
+      <c r="E11" s="19">
         <v>0.83399999999999996</v>
       </c>
-      <c r="F11" s="21">
+      <c r="F11" s="19">
         <v>0.97699999999999998</v>
       </c>
       <c r="G11" t="str">
@@ -4138,21 +4190,39 @@
         <f t="shared" si="4"/>
         <v>0.90 (0.83 ,0.98)</v>
       </c>
-    </row>
-    <row r="12" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="M11" s="24" t="s">
+        <v>154</v>
+      </c>
+      <c r="N11" s="25" t="s">
+        <v>160</v>
+      </c>
+      <c r="O11" s="25" t="s">
+        <v>156</v>
+      </c>
+      <c r="P11" s="25" t="s">
+        <v>157</v>
+      </c>
+      <c r="Q11" s="25" t="s">
+        <v>158</v>
+      </c>
+      <c r="R11" s="25" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="12" spans="2:18" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
-        <v>162</v>
+        <v>152</v>
       </c>
       <c r="C12" t="s">
-        <v>158</v>
-      </c>
-      <c r="D12" s="21">
+        <v>148</v>
+      </c>
+      <c r="D12" s="19">
         <v>0.91500000000000004</v>
       </c>
-      <c r="E12" s="21">
+      <c r="E12" s="19">
         <v>0.85</v>
       </c>
-      <c r="F12" s="21">
+      <c r="F12" s="19">
         <v>0.98599999999999999</v>
       </c>
       <c r="G12" t="str">
@@ -4171,21 +4241,43 @@
         <f t="shared" si="4"/>
         <v>0.92 (0.85 ,0.99)</v>
       </c>
+      <c r="M12" s="23">
+        <v>0</v>
+      </c>
+      <c r="N12" s="28" t="s">
+        <v>161</v>
+      </c>
+      <c r="O12" s="21" t="str">
+        <f>J21</f>
+        <v>1.00 (0.94 ,1.06)</v>
+      </c>
+      <c r="P12" s="21" t="str">
+        <f>J22</f>
+        <v>0.99 (0.93 ,1.05)</v>
+      </c>
+      <c r="Q12" s="26" t="str">
+        <f>J23</f>
+        <v>0.92 (0.86 ,0.98)</v>
+      </c>
+      <c r="R12" s="21" t="str">
+        <f>J24</f>
+        <v>0.97 (0.90 ,1.04)</v>
+      </c>
     </row>
     <row r="13" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
-        <v>162</v>
+        <v>152</v>
       </c>
       <c r="C13" t="s">
-        <v>159</v>
-      </c>
-      <c r="D13" s="21">
+        <v>149</v>
+      </c>
+      <c r="D13" s="19">
         <v>0.82099999999999995</v>
       </c>
-      <c r="E13" s="21">
+      <c r="E13" s="19">
         <v>0.76100000000000001</v>
       </c>
-      <c r="F13" s="21">
+      <c r="F13" s="19">
         <v>0.88500000000000001</v>
       </c>
       <c r="G13" t="str">
@@ -4204,21 +4296,44 @@
         <f t="shared" si="4"/>
         <v>0.82 (0.76 ,0.89)</v>
       </c>
+      <c r="M13" s="23">
+        <v>10</v>
+      </c>
+      <c r="N13" s="27" t="str">
+        <f>J25</f>
+        <v>1.05 (1.03 ,1.07)</v>
+      </c>
+      <c r="O13" s="21" t="str">
+        <f>J26</f>
+        <v>1.02 (0.96 ,1.07)</v>
+      </c>
+      <c r="P13" s="21" t="str">
+        <f>J27</f>
+        <v>1.01 (0.96 ,1.07)</v>
+      </c>
+      <c r="Q13" s="26" t="str">
+        <f>J28</f>
+        <v>0.93 (0.88 ,0.99)</v>
+      </c>
+      <c r="R13" s="21" t="str">
+        <f>J29</f>
+        <v>0.98 (0.92 ,1.06)</v>
+      </c>
     </row>
     <row r="14" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
-        <v>162</v>
+        <v>152</v>
       </c>
       <c r="C14" t="s">
-        <v>160</v>
-      </c>
-      <c r="D14" s="21">
+        <v>150</v>
+      </c>
+      <c r="D14" s="19">
         <v>0.871</v>
       </c>
-      <c r="E14" s="21">
+      <c r="E14" s="19">
         <v>0.80600000000000005</v>
       </c>
-      <c r="F14" s="21">
+      <c r="F14" s="19">
         <v>0.94199999999999995</v>
       </c>
       <c r="G14" t="str">
@@ -4237,21 +4352,44 @@
         <f t="shared" si="4"/>
         <v>0.87 (0.81 ,0.94)</v>
       </c>
+      <c r="M14" s="23">
+        <v>30</v>
+      </c>
+      <c r="N14" s="27" t="str">
+        <f>J30</f>
+        <v>1.17 (1.10 ,1.24)</v>
+      </c>
+      <c r="O14" s="26" t="str">
+        <f>J31</f>
+        <v>1.06 (0.99 ,1.13)</v>
+      </c>
+      <c r="P14" s="26" t="str">
+        <f>J32</f>
+        <v>1.07 (1.01 ,1.14)</v>
+      </c>
+      <c r="Q14" s="21" t="str">
+        <f>J33</f>
+        <v>0.96 (0.90 ,1.02)</v>
+      </c>
+      <c r="R14" s="21" t="str">
+        <f>J34</f>
+        <v>1.02 (0.95 ,1.09)</v>
+      </c>
     </row>
     <row r="15" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B15" t="s">
-        <v>163</v>
+        <v>153</v>
       </c>
       <c r="C15" t="s">
-        <v>157</v>
-      </c>
-      <c r="D15" s="21">
+        <v>147</v>
+      </c>
+      <c r="D15" s="19">
         <v>0.71499999999999997</v>
       </c>
-      <c r="E15" s="21">
+      <c r="E15" s="19">
         <v>0.55500000000000005</v>
       </c>
-      <c r="F15" s="21">
+      <c r="F15" s="19">
         <v>0.92100000000000004</v>
       </c>
       <c r="G15" t="str">
@@ -4270,21 +4408,44 @@
         <f t="shared" si="4"/>
         <v>0.72 (0.56 ,0.92)</v>
       </c>
+      <c r="M15" s="23">
+        <v>100</v>
+      </c>
+      <c r="N15" s="27" t="str">
+        <f>J35</f>
+        <v>1.69 (1.38 ,2.06)</v>
+      </c>
+      <c r="O15" s="26" t="str">
+        <f>J36</f>
+        <v>1.21 (1.00 ,1.45)</v>
+      </c>
+      <c r="P15" s="26" t="str">
+        <f>J37</f>
+        <v>1.29 (1.12 ,1.50)</v>
+      </c>
+      <c r="Q15" s="26" t="str">
+        <f>J38</f>
+        <v>1.06 (0.93 ,1.22)</v>
+      </c>
+      <c r="R15" s="26" t="str">
+        <f>J39</f>
+        <v>1.15 (1.02 ,1.30)</v>
+      </c>
     </row>
     <row r="16" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
-        <v>164</v>
+        <v>153</v>
       </c>
       <c r="C16" t="s">
-        <v>158</v>
-      </c>
-      <c r="D16" s="21">
+        <v>148</v>
+      </c>
+      <c r="D16" s="19">
         <v>0.76700000000000002</v>
       </c>
-      <c r="E16" s="21">
+      <c r="E16" s="19">
         <v>0.61099999999999999</v>
       </c>
-      <c r="F16" s="21">
+      <c r="F16" s="19">
         <v>0.96299999999999997</v>
       </c>
       <c r="G16" t="str">
@@ -4306,18 +4467,18 @@
     </row>
     <row r="17" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B17" t="s">
-        <v>165</v>
+        <v>153</v>
       </c>
       <c r="C17" t="s">
-        <v>159</v>
-      </c>
-      <c r="D17" s="21">
+        <v>149</v>
+      </c>
+      <c r="D17" s="19">
         <v>0.63100000000000001</v>
       </c>
-      <c r="E17" s="21">
+      <c r="E17" s="19">
         <v>0.505</v>
       </c>
-      <c r="F17" s="21">
+      <c r="F17" s="19">
         <v>0.78800000000000003</v>
       </c>
       <c r="G17" t="str">
@@ -4339,18 +4500,18 @@
     </row>
     <row r="18" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B18" t="s">
-        <v>166</v>
+        <v>153</v>
       </c>
       <c r="C18" t="s">
-        <v>160</v>
-      </c>
-      <c r="D18" s="21">
+        <v>150</v>
+      </c>
+      <c r="D18" s="19">
         <v>0.68200000000000005</v>
       </c>
-      <c r="E18" s="21">
+      <c r="E18" s="19">
         <v>0.55000000000000004</v>
       </c>
-      <c r="F18" s="21">
+      <c r="F18" s="19">
         <v>0.84599999999999997</v>
       </c>
       <c r="G18" t="str">
@@ -4370,11 +4531,653 @@
         <v>0.68 (0.55 ,0.85)</v>
       </c>
     </row>
+    <row r="19" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="D19" s="19"/>
+      <c r="E19" s="19"/>
+      <c r="F19" s="19"/>
+    </row>
+    <row r="20" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B20" t="s">
+        <v>141</v>
+      </c>
+      <c r="C20" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="21" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B21" t="s">
+        <v>146</v>
+      </c>
+      <c r="C21" t="s">
+        <v>147</v>
+      </c>
+      <c r="D21">
+        <v>0.99813459999999998</v>
+      </c>
+      <c r="E21">
+        <v>0.94376959999999999</v>
+      </c>
+      <c r="F21">
+        <v>1.0556312000000001</v>
+      </c>
+      <c r="G21" t="str">
+        <f>TEXT(ROUND(D21, 2), "0.00")</f>
+        <v>1.00</v>
+      </c>
+      <c r="H21" t="str">
+        <f t="shared" ref="H21:I21" si="5">TEXT(ROUND(E21, 2), "0.00")</f>
+        <v>0.94</v>
+      </c>
+      <c r="I21" t="str">
+        <f t="shared" si="5"/>
+        <v>1.06</v>
+      </c>
+      <c r="J21" t="str">
+        <f t="shared" si="4"/>
+        <v>1.00 (0.94 ,1.06)</v>
+      </c>
+    </row>
+    <row r="22" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B22" t="s">
+        <v>146</v>
+      </c>
+      <c r="C22" t="s">
+        <v>148</v>
+      </c>
+      <c r="D22">
+        <v>0.98720730000000001</v>
+      </c>
+      <c r="E22">
+        <v>0.92968519999999999</v>
+      </c>
+      <c r="F22">
+        <v>1.0482885</v>
+      </c>
+      <c r="G22" t="str">
+        <f t="shared" ref="G22:G39" si="6">TEXT(ROUND(D22, 2), "0.00")</f>
+        <v>0.99</v>
+      </c>
+      <c r="H22" t="str">
+        <f t="shared" ref="H22:H39" si="7">TEXT(ROUND(E22, 2), "0.00")</f>
+        <v>0.93</v>
+      </c>
+      <c r="I22" t="str">
+        <f t="shared" ref="I22:I39" si="8">TEXT(ROUND(F22, 2), "0.00")</f>
+        <v>1.05</v>
+      </c>
+      <c r="J22" t="str">
+        <f t="shared" si="4"/>
+        <v>0.99 (0.93 ,1.05)</v>
+      </c>
+    </row>
+    <row r="23" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B23" t="s">
+        <v>146</v>
+      </c>
+      <c r="C23" t="s">
+        <v>149</v>
+      </c>
+      <c r="D23">
+        <v>0.91913140000000004</v>
+      </c>
+      <c r="E23">
+        <v>0.86135989999999996</v>
+      </c>
+      <c r="F23">
+        <v>0.98077769999999997</v>
+      </c>
+      <c r="G23" t="str">
+        <f t="shared" si="6"/>
+        <v>0.92</v>
+      </c>
+      <c r="H23" t="str">
+        <f t="shared" si="7"/>
+        <v>0.86</v>
+      </c>
+      <c r="I23" t="str">
+        <f t="shared" si="8"/>
+        <v>0.98</v>
+      </c>
+      <c r="J23" t="str">
+        <f t="shared" ref="J23:J39" si="9">_xlfn.CONCAT(G23," (",H23, " ,", I23,")")</f>
+        <v>0.92 (0.86 ,0.98)</v>
+      </c>
+    </row>
+    <row r="24" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B24" t="s">
+        <v>146</v>
+      </c>
+      <c r="C24" t="s">
+        <v>150</v>
+      </c>
+      <c r="D24">
+        <v>0.96760539999999995</v>
+      </c>
+      <c r="E24">
+        <v>0.89682320000000004</v>
+      </c>
+      <c r="F24">
+        <v>1.0439742000000001</v>
+      </c>
+      <c r="G24" t="str">
+        <f t="shared" si="6"/>
+        <v>0.97</v>
+      </c>
+      <c r="H24" t="str">
+        <f t="shared" si="7"/>
+        <v>0.90</v>
+      </c>
+      <c r="I24" t="str">
+        <f t="shared" si="8"/>
+        <v>1.04</v>
+      </c>
+      <c r="J24" t="str">
+        <f t="shared" si="9"/>
+        <v>0.97 (0.90 ,1.04)</v>
+      </c>
+    </row>
+    <row r="25" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B25" t="s">
+        <v>151</v>
+      </c>
+      <c r="C25" t="s">
+        <v>160</v>
+      </c>
+      <c r="D25">
+        <v>1.05369</v>
+      </c>
+      <c r="E25">
+        <v>1.0328759999999999</v>
+      </c>
+      <c r="F25">
+        <v>1.0749219999999999</v>
+      </c>
+      <c r="G25" t="str">
+        <f t="shared" si="6"/>
+        <v>1.05</v>
+      </c>
+      <c r="H25" t="str">
+        <f t="shared" si="7"/>
+        <v>1.03</v>
+      </c>
+      <c r="I25" t="str">
+        <f t="shared" si="8"/>
+        <v>1.07</v>
+      </c>
+      <c r="J25" t="str">
+        <f t="shared" si="9"/>
+        <v>1.05 (1.03 ,1.07)</v>
+      </c>
+    </row>
+    <row r="26" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B26" t="s">
+        <v>151</v>
+      </c>
+      <c r="C26" t="s">
+        <v>147</v>
+      </c>
+      <c r="D26">
+        <v>1.0171767</v>
+      </c>
+      <c r="E26">
+        <v>0.96432019999999996</v>
+      </c>
+      <c r="F26">
+        <v>1.0729302999999999</v>
+      </c>
+      <c r="G26" t="str">
+        <f t="shared" si="6"/>
+        <v>1.02</v>
+      </c>
+      <c r="H26" t="str">
+        <f t="shared" si="7"/>
+        <v>0.96</v>
+      </c>
+      <c r="I26" t="str">
+        <f t="shared" si="8"/>
+        <v>1.07</v>
+      </c>
+      <c r="J26" t="str">
+        <f t="shared" si="9"/>
+        <v>1.02 (0.96 ,1.07)</v>
+      </c>
+    </row>
+    <row r="27" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B27" t="s">
+        <v>151</v>
+      </c>
+      <c r="C27" t="s">
+        <v>148</v>
+      </c>
+      <c r="D27">
+        <v>1.0143200999999999</v>
+      </c>
+      <c r="E27">
+        <v>0.95856870000000005</v>
+      </c>
+      <c r="F27">
+        <v>1.0733140000000001</v>
+      </c>
+      <c r="G27" t="str">
+        <f t="shared" si="6"/>
+        <v>1.01</v>
+      </c>
+      <c r="H27" t="str">
+        <f t="shared" si="7"/>
+        <v>0.96</v>
+      </c>
+      <c r="I27" t="str">
+        <f t="shared" si="8"/>
+        <v>1.07</v>
+      </c>
+      <c r="J27" t="str">
+        <f t="shared" si="9"/>
+        <v>1.01 (0.96 ,1.07)</v>
+      </c>
+    </row>
+    <row r="28" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B28" t="s">
+        <v>151</v>
+      </c>
+      <c r="C28" t="s">
+        <v>149</v>
+      </c>
+      <c r="D28">
+        <v>0.93267770000000005</v>
+      </c>
+      <c r="E28">
+        <v>0.87774620000000003</v>
+      </c>
+      <c r="F28">
+        <v>0.99104689999999995</v>
+      </c>
+      <c r="G28" t="str">
+        <f t="shared" si="6"/>
+        <v>0.93</v>
+      </c>
+      <c r="H28" t="str">
+        <f t="shared" si="7"/>
+        <v>0.88</v>
+      </c>
+      <c r="I28" t="str">
+        <f t="shared" si="8"/>
+        <v>0.99</v>
+      </c>
+      <c r="J28" t="str">
+        <f t="shared" si="9"/>
+        <v>0.93 (0.88 ,0.99)</v>
+      </c>
+    </row>
+    <row r="29" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B29" t="s">
+        <v>151</v>
+      </c>
+      <c r="C29" t="s">
+        <v>150</v>
+      </c>
+      <c r="D29">
+        <v>0.98454189999999997</v>
+      </c>
+      <c r="E29">
+        <v>0.91746329999999998</v>
+      </c>
+      <c r="F29">
+        <v>1.0565249000000001</v>
+      </c>
+      <c r="G29" t="str">
+        <f t="shared" si="6"/>
+        <v>0.98</v>
+      </c>
+      <c r="H29" t="str">
+        <f t="shared" si="7"/>
+        <v>0.92</v>
+      </c>
+      <c r="I29" t="str">
+        <f t="shared" si="8"/>
+        <v>1.06</v>
+      </c>
+      <c r="J29" t="str">
+        <f t="shared" si="9"/>
+        <v>0.98 (0.92 ,1.06)</v>
+      </c>
+    </row>
+    <row r="30" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B30" t="s">
+        <v>152</v>
+      </c>
+      <c r="C30" t="s">
+        <v>160</v>
+      </c>
+      <c r="D30">
+        <v>1.169872</v>
+      </c>
+      <c r="E30">
+        <v>1.1019080000000001</v>
+      </c>
+      <c r="F30">
+        <v>1.2420279999999999</v>
+      </c>
+      <c r="G30" t="str">
+        <f t="shared" si="6"/>
+        <v>1.17</v>
+      </c>
+      <c r="H30" t="str">
+        <f t="shared" si="7"/>
+        <v>1.10</v>
+      </c>
+      <c r="I30" t="str">
+        <f t="shared" si="8"/>
+        <v>1.24</v>
+      </c>
+      <c r="J30" t="str">
+        <f t="shared" si="9"/>
+        <v>1.17 (1.10 ,1.24)</v>
+      </c>
+    </row>
+    <row r="31" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B31" t="s">
+        <v>152</v>
+      </c>
+      <c r="C31" t="s">
+        <v>147</v>
+      </c>
+      <c r="D31">
+        <v>1.0563577</v>
+      </c>
+      <c r="E31">
+        <v>0.9877918</v>
+      </c>
+      <c r="F31">
+        <v>1.1296828999999999</v>
+      </c>
+      <c r="G31" t="str">
+        <f t="shared" si="6"/>
+        <v>1.06</v>
+      </c>
+      <c r="H31" t="str">
+        <f t="shared" si="7"/>
+        <v>0.99</v>
+      </c>
+      <c r="I31" t="str">
+        <f t="shared" si="8"/>
+        <v>1.13</v>
+      </c>
+      <c r="J31" t="str">
+        <f t="shared" si="9"/>
+        <v>1.06 (0.99 ,1.13)</v>
+      </c>
+    </row>
+    <row r="32" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B32" t="s">
+        <v>152</v>
+      </c>
+      <c r="C32" t="s">
+        <v>148</v>
+      </c>
+      <c r="D32">
+        <v>1.0708</v>
+      </c>
+      <c r="E32">
+        <v>1.006759</v>
+      </c>
+      <c r="F32">
+        <v>1.138914</v>
+      </c>
+      <c r="G32" t="str">
+        <f t="shared" si="6"/>
+        <v>1.07</v>
+      </c>
+      <c r="H32" t="str">
+        <f t="shared" si="7"/>
+        <v>1.01</v>
+      </c>
+      <c r="I32" t="str">
+        <f t="shared" si="8"/>
+        <v>1.14</v>
+      </c>
+      <c r="J32" t="str">
+        <f t="shared" si="9"/>
+        <v>1.07 (1.01 ,1.14)</v>
+      </c>
+    </row>
+    <row r="33" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B33" t="s">
+        <v>152</v>
+      </c>
+      <c r="C33" t="s">
+        <v>149</v>
+      </c>
+      <c r="D33">
+        <v>0.960372</v>
+      </c>
+      <c r="E33">
+        <v>0.90220469999999997</v>
+      </c>
+      <c r="F33">
+        <v>1.0222895999999999</v>
+      </c>
+      <c r="G33" t="str">
+        <f t="shared" si="6"/>
+        <v>0.96</v>
+      </c>
+      <c r="H33" t="str">
+        <f t="shared" si="7"/>
+        <v>0.90</v>
+      </c>
+      <c r="I33" t="str">
+        <f t="shared" si="8"/>
+        <v>1.02</v>
+      </c>
+      <c r="J33" t="str">
+        <f t="shared" si="9"/>
+        <v>0.96 (0.90 ,1.02)</v>
+      </c>
+    </row>
+    <row r="34" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B34" t="s">
+        <v>152</v>
+      </c>
+      <c r="C34" t="s">
+        <v>150</v>
+      </c>
+      <c r="D34">
+        <v>1.019309</v>
+      </c>
+      <c r="E34">
+        <v>0.95297399999999999</v>
+      </c>
+      <c r="F34">
+        <v>1.0902620000000001</v>
+      </c>
+      <c r="G34" t="str">
+        <f t="shared" si="6"/>
+        <v>1.02</v>
+      </c>
+      <c r="H34" t="str">
+        <f t="shared" si="7"/>
+        <v>0.95</v>
+      </c>
+      <c r="I34" t="str">
+        <f t="shared" si="8"/>
+        <v>1.09</v>
+      </c>
+      <c r="J34" t="str">
+        <f t="shared" si="9"/>
+        <v>1.02 (0.95 ,1.09)</v>
+      </c>
+    </row>
+    <row r="35" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B35" t="s">
+        <v>153</v>
+      </c>
+      <c r="C35" t="s">
+        <v>160</v>
+      </c>
+      <c r="D35">
+        <v>1.687049</v>
+      </c>
+      <c r="E35">
+        <v>1.381923</v>
+      </c>
+      <c r="F35">
+        <v>2.059545</v>
+      </c>
+      <c r="G35" t="str">
+        <f t="shared" si="6"/>
+        <v>1.69</v>
+      </c>
+      <c r="H35" t="str">
+        <f t="shared" si="7"/>
+        <v>1.38</v>
+      </c>
+      <c r="I35" t="str">
+        <f t="shared" si="8"/>
+        <v>2.06</v>
+      </c>
+      <c r="J35" t="str">
+        <f t="shared" si="9"/>
+        <v>1.69 (1.38 ,2.06)</v>
+      </c>
+    </row>
+    <row r="36" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B36" t="s">
+        <v>153</v>
+      </c>
+      <c r="C36" t="s">
+        <v>147</v>
+      </c>
+      <c r="D36">
+        <v>1.2057629999999999</v>
+      </c>
+      <c r="E36">
+        <v>1.0033749999999999</v>
+      </c>
+      <c r="F36">
+        <v>1.4489749999999999</v>
+      </c>
+      <c r="G36" t="str">
+        <f t="shared" si="6"/>
+        <v>1.21</v>
+      </c>
+      <c r="H36" t="str">
+        <f t="shared" si="7"/>
+        <v>1.00</v>
+      </c>
+      <c r="I36" t="str">
+        <f t="shared" si="8"/>
+        <v>1.45</v>
+      </c>
+      <c r="J36" t="str">
+        <f t="shared" si="9"/>
+        <v>1.21 (1.00 ,1.45)</v>
+      </c>
+    </row>
+    <row r="37" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B37" t="s">
+        <v>153</v>
+      </c>
+      <c r="C37" t="s">
+        <v>148</v>
+      </c>
+      <c r="D37">
+        <v>1.294419</v>
+      </c>
+      <c r="E37">
+        <v>1.120282</v>
+      </c>
+      <c r="F37">
+        <v>1.4956240000000001</v>
+      </c>
+      <c r="G37" t="str">
+        <f t="shared" si="6"/>
+        <v>1.29</v>
+      </c>
+      <c r="H37" t="str">
+        <f t="shared" si="7"/>
+        <v>1.12</v>
+      </c>
+      <c r="I37" t="str">
+        <f t="shared" si="8"/>
+        <v>1.50</v>
+      </c>
+      <c r="J37" t="str">
+        <f t="shared" si="9"/>
+        <v>1.29 (1.12 ,1.50)</v>
+      </c>
+    </row>
+    <row r="38" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B38" t="s">
+        <v>153</v>
+      </c>
+      <c r="C38" t="s">
+        <v>149</v>
+      </c>
+      <c r="D38">
+        <v>1.0639402</v>
+      </c>
+      <c r="E38">
+        <v>0.93005990000000005</v>
+      </c>
+      <c r="F38">
+        <v>1.2170923</v>
+      </c>
+      <c r="G38" t="str">
+        <f t="shared" si="6"/>
+        <v>1.06</v>
+      </c>
+      <c r="H38" t="str">
+        <f t="shared" si="7"/>
+        <v>0.93</v>
+      </c>
+      <c r="I38" t="str">
+        <f t="shared" si="8"/>
+        <v>1.22</v>
+      </c>
+      <c r="J38" t="str">
+        <f t="shared" si="9"/>
+        <v>1.06 (0.93 ,1.22)</v>
+      </c>
+    </row>
+    <row r="39" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B39" t="s">
+        <v>153</v>
+      </c>
+      <c r="C39" t="s">
+        <v>150</v>
+      </c>
+      <c r="D39">
+        <v>1.1509529999999999</v>
+      </c>
+      <c r="E39">
+        <v>1.018958</v>
+      </c>
+      <c r="F39">
+        <v>1.3000449999999999</v>
+      </c>
+      <c r="G39" t="str">
+        <f t="shared" si="6"/>
+        <v>1.15</v>
+      </c>
+      <c r="H39" t="str">
+        <f t="shared" si="7"/>
+        <v>1.02</v>
+      </c>
+      <c r="I39" t="str">
+        <f t="shared" si="8"/>
+        <v>1.30</v>
+      </c>
+      <c r="J39" t="str">
+        <f t="shared" si="9"/>
+        <v>1.15 (1.02 ,1.30)</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="N2:R2"/>
+    <mergeCell ref="N10:R10"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>